--- a/Process_Design/T=720K,P=6atm.xlsx
+++ b/Process_Design/T=720K,P=6atm.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>Economic Potential 2</t>
   </si>
@@ -55,6 +55,9 @@
     <t>Length(ft)</t>
   </si>
   <si>
+    <t>Fc</t>
+  </si>
+  <si>
     <t>installation_cost</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>annual_capital_investment</t>
+  </si>
+  <si>
+    <t>reactor_volume</t>
   </si>
   <si>
     <t>catalyst_cost</t>
@@ -76,10 +82,28 @@
     <t>Reactor_Heating_Cost</t>
   </si>
   <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>TLM</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
     <t>annual_reactor_heating_cost</t>
   </si>
   <si>
     <t>Water_Cost</t>
+  </si>
+  <si>
+    <t>Reactor Q</t>
+  </si>
+  <si>
+    <t>delta_temp</t>
+  </si>
+  <si>
+    <t>price_coolingwater</t>
   </si>
   <si>
     <t>volume_flowrate</t>
@@ -91,6 +115,12 @@
     <t>Furnace_Cost</t>
   </si>
   <si>
+    <t>Furnace Heat Duty</t>
+  </si>
+  <si>
+    <t>price_fuel</t>
+  </si>
+  <si>
     <t>annual_operating_cost</t>
   </si>
   <si>
@@ -98,6 +128,15 @@
   </si>
   <si>
     <t>Pump_Cost</t>
+  </si>
+  <si>
+    <t>pressure drop</t>
+  </si>
+  <si>
+    <t>shaft work</t>
+  </si>
+  <si>
+    <t>price_electricity</t>
   </si>
   <si>
     <t>annual_pump_cost</t>
@@ -467,13 +506,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BB31"/>
+  <dimension ref="A1:BQ31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:54">
+    <row r="1" spans="1:69">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -538,106 +577,151 @@
         <v>19</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AG1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="BP1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="BB1" s="1" t="s">
-        <v>31</v>
+      <c r="BQ1" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:54">
+    <row r="2" spans="1:69">
       <c r="B2">
         <v>0.040146053</v>
       </c>
@@ -675,112 +759,157 @@
         <v>22.967</v>
       </c>
       <c r="O2">
+        <v>2.3625</v>
+      </c>
+      <c r="P2">
         <v>88626.09870509618</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>185760.3028858816</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>61920.10096196054</v>
       </c>
-      <c r="R2">
+      <c r="S2">
+        <v>2.693915700453247</v>
+      </c>
+      <c r="T2">
         <v>2135.062888394221</v>
       </c>
-      <c r="S2">
+      <c r="U2">
         <v>181257.9431293011</v>
       </c>
-      <c r="T2">
+      <c r="V2">
         <v>243178.0440912616</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>0.040146053</v>
       </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>113.565</v>
+      </c>
+      <c r="Z2">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA2">
+        <v>547.1168078546001</v>
+      </c>
+      <c r="AB2">
+        <v>3.7935</v>
+      </c>
+      <c r="AC2">
         <v>238577.4917948237</v>
       </c>
-      <c r="X2">
+      <c r="AD2">
         <v>498626.9578511816</v>
       </c>
-      <c r="Y2">
+      <c r="AE2">
         <v>166208.9859503938</v>
       </c>
-      <c r="Z2">
+      <c r="AF2">
         <v>166208.9859503938</v>
       </c>
-      <c r="AB2">
+      <c r="AH2">
         <v>0.040146053</v>
       </c>
-      <c r="AC2">
+      <c r="AI2">
+        <v>-2.43546568</v>
+      </c>
+      <c r="AJ2">
+        <v>20</v>
+      </c>
+      <c r="AK2">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL2">
         <v>853731.3707876431</v>
       </c>
-      <c r="AD2">
+      <c r="AM2">
         <v>6932.298730795661</v>
       </c>
-      <c r="AF2">
+      <c r="AO2">
         <v>0.040146053</v>
       </c>
-      <c r="AG2">
+      <c r="AP2">
+        <v>566.4509270419496</v>
+      </c>
+      <c r="AQ2">
+        <v>1.75</v>
+      </c>
+      <c r="AR2">
+        <v>23455702.38793</v>
+      </c>
+      <c r="AS2">
+        <v>49022417.99077369</v>
+      </c>
+      <c r="AT2">
+        <v>16340805.99692456</v>
+      </c>
+      <c r="AU2">
+        <v>3.8</v>
+      </c>
+      <c r="AV2">
         <v>17542985.21048918</v>
       </c>
-      <c r="AH2">
-        <v>23455702.38793</v>
-      </c>
-      <c r="AI2">
-        <v>49022417.99077369</v>
-      </c>
-      <c r="AJ2">
-        <v>16340805.99692456</v>
-      </c>
-      <c r="AK2">
+      <c r="AW2">
         <v>33883791.20741374</v>
       </c>
-      <c r="AM2">
+      <c r="AY2">
         <v>0.040146053</v>
       </c>
-      <c r="AN2">
+      <c r="AZ2">
+        <v>506625</v>
+      </c>
+      <c r="BA2">
+        <v>71119.29499079994</v>
+      </c>
+      <c r="BB2">
+        <v>39752.5544312031</v>
+      </c>
+      <c r="BC2">
+        <v>83082.83876121447</v>
+      </c>
+      <c r="BD2">
+        <v>27694.27958707149</v>
+      </c>
+      <c r="BE2">
+        <v>0.035</v>
+      </c>
+      <c r="BF2">
         <v>27205.01394143179</v>
       </c>
-      <c r="AO2">
-        <v>39752.5544312031</v>
-      </c>
-      <c r="AP2">
-        <v>83082.83876121447</v>
-      </c>
-      <c r="AQ2">
-        <v>27694.27958707149</v>
-      </c>
-      <c r="AR2">
+      <c r="BG2">
         <v>54899.29352850328</v>
       </c>
-      <c r="AT2">
+      <c r="BI2">
         <v>0.040146053</v>
       </c>
-      <c r="AU2">
+      <c r="BJ2">
         <v>0.9196528834525259</v>
       </c>
-      <c r="AV2">
+      <c r="BK2">
         <v>243178.0440912616</v>
       </c>
-      <c r="AW2">
+      <c r="BL2">
         <v>166208.9859503938</v>
       </c>
-      <c r="AX2">
+      <c r="BM2">
         <v>33883791.20741374</v>
       </c>
-      <c r="AY2">
+      <c r="BN2">
         <v>54899.29352850328</v>
       </c>
-      <c r="AZ2">
+      <c r="BO2">
         <v>6932.298730795661</v>
       </c>
-      <c r="BA2">
+      <c r="BP2">
         <v>67704231.15644096</v>
       </c>
-      <c r="BB2">
+      <c r="BQ2">
         <v>33349221.32672627</v>
       </c>
     </row>
-    <row r="3" spans="1:54">
+    <row r="3" spans="1:69">
       <c r="B3">
         <v>0.0750829366</v>
       </c>
@@ -818,112 +947,157 @@
         <v>24.61135291111</v>
       </c>
       <c r="O3">
+        <v>2.3625</v>
+      </c>
+      <c r="P3">
         <v>100846.2948523364</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>211373.834010497</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>70457.94467016567</v>
       </c>
-      <c r="R3">
+      <c r="S3">
+        <v>3.314955128333695</v>
+      </c>
+      <c r="T3">
         <v>2627.26768696087</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>223044.0796742822</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>293502.0243444479</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>0.0750829366</v>
       </c>
-      <c r="W3">
+      <c r="Y3">
+        <v>113.565</v>
+      </c>
+      <c r="Z3">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA3">
+        <v>576.4403277164176</v>
+      </c>
+      <c r="AB3">
+        <v>3.7935</v>
+      </c>
+      <c r="AC3">
         <v>246812.8478585464</v>
       </c>
-      <c r="X3">
+      <c r="AD3">
         <v>515838.8520243619</v>
       </c>
-      <c r="Y3">
+      <c r="AE3">
         <v>171946.2840081206</v>
       </c>
-      <c r="Z3">
+      <c r="AF3">
         <v>171946.2840081206</v>
       </c>
-      <c r="AB3">
+      <c r="AH3">
         <v>0.0750829366</v>
       </c>
-      <c r="AC3">
+      <c r="AI3">
+        <v>-2.565998</v>
+      </c>
+      <c r="AJ3">
+        <v>20</v>
+      </c>
+      <c r="AK3">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL3">
         <v>899488.3434277549</v>
       </c>
-      <c r="AD3">
+      <c r="AM3">
         <v>7303.845348633369</v>
       </c>
-      <c r="AF3">
+      <c r="AO3">
         <v>0.0750829366</v>
       </c>
-      <c r="AG3">
+      <c r="AP3">
+        <v>317.1276101835464</v>
+      </c>
+      <c r="AQ3">
+        <v>1.75</v>
+      </c>
+      <c r="AR3">
+        <v>14325488.52186806</v>
+      </c>
+      <c r="AS3">
+        <v>29940271.01070424</v>
+      </c>
+      <c r="AT3">
+        <v>9980090.336901411</v>
+      </c>
+      <c r="AU3">
+        <v>3.8</v>
+      </c>
+      <c r="AV3">
         <v>9821442.087384431</v>
       </c>
-      <c r="AH3">
-        <v>14325488.52186806</v>
-      </c>
-      <c r="AI3">
-        <v>29940271.01070424</v>
-      </c>
-      <c r="AJ3">
-        <v>9980090.336901411</v>
-      </c>
-      <c r="AK3">
+      <c r="AW3">
         <v>19801532.42428584</v>
       </c>
-      <c r="AM3">
+      <c r="AY3">
         <v>0.0750829366</v>
       </c>
-      <c r="AN3">
+      <c r="AZ3">
+        <v>506625</v>
+      </c>
+      <c r="BA3">
+        <v>39821.01081555181</v>
+      </c>
+      <c r="BB3">
+        <v>27658.60786754369</v>
+      </c>
+      <c r="BC3">
+        <v>57806.49044316632</v>
+      </c>
+      <c r="BD3">
+        <v>19268.8301477221</v>
+      </c>
+      <c r="BE3">
+        <v>0.035</v>
+      </c>
+      <c r="BF3">
         <v>15232.59130365583</v>
       </c>
-      <c r="AO3">
-        <v>27658.60786754369</v>
-      </c>
-      <c r="AP3">
-        <v>57806.49044316632</v>
-      </c>
-      <c r="AQ3">
-        <v>19268.8301477221</v>
-      </c>
-      <c r="AR3">
+      <c r="BG3">
         <v>34501.42145137794</v>
       </c>
-      <c r="AT3">
+      <c r="BI3">
         <v>0.0750829366</v>
       </c>
-      <c r="AU3">
+      <c r="BJ3">
         <v>0.8792120089137277</v>
       </c>
-      <c r="AV3">
+      <c r="BK3">
         <v>293502.0243444479</v>
       </c>
-      <c r="AW3">
+      <c r="BL3">
         <v>171946.2840081206</v>
       </c>
-      <c r="AX3">
+      <c r="BM3">
         <v>19801532.42428584</v>
       </c>
-      <c r="AY3">
+      <c r="BN3">
         <v>34501.42145137794</v>
       </c>
-      <c r="AZ3">
+      <c r="BO3">
         <v>7303.845348633369</v>
       </c>
-      <c r="BA3">
+      <c r="BP3">
         <v>66272596.66226654</v>
       </c>
-      <c r="BB3">
+      <c r="BQ3">
         <v>45963810.66282812</v>
       </c>
     </row>
-    <row r="4" spans="1:54">
+    <row r="4" spans="1:69">
       <c r="B4">
         <v>0.101196767</v>
       </c>
@@ -961,112 +1135,157 @@
         <v>26.37343541885</v>
       </c>
       <c r="O4">
+        <v>2.3625</v>
+      </c>
+      <c r="P4">
         <v>114751.4705866843</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>240519.0823496902</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>80173.02744989673</v>
       </c>
-      <c r="R4">
+      <c r="S4">
+        <v>4.079165303772926</v>
+      </c>
+      <c r="T4">
         <v>3232.942461505233</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>274463.3443882047</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>354636.3718381014</v>
       </c>
-      <c r="V4">
+      <c r="X4">
         <v>0.101196767</v>
       </c>
-      <c r="W4">
+      <c r="Y4">
+        <v>113.565</v>
+      </c>
+      <c r="Z4">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA4">
+        <v>610.6790183541766</v>
+      </c>
+      <c r="AB4">
+        <v>3.7935</v>
+      </c>
+      <c r="AC4">
         <v>256245.2836803601</v>
       </c>
-      <c r="X4">
+      <c r="AD4">
         <v>535552.6428919527</v>
       </c>
-      <c r="Y4">
+      <c r="AE4">
         <v>178517.5476306509</v>
       </c>
-      <c r="Z4">
+      <c r="AF4">
         <v>178517.5476306509</v>
       </c>
-      <c r="AB4">
+      <c r="AH4">
         <v>0.101196767</v>
       </c>
-      <c r="AC4">
+      <c r="AI4">
+        <v>-2.71840998</v>
+      </c>
+      <c r="AJ4">
+        <v>20</v>
+      </c>
+      <c r="AK4">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL4">
         <v>952915.0411137019</v>
       </c>
-      <c r="AD4">
+      <c r="AM4">
         <v>7737.670133843259</v>
       </c>
-      <c r="AF4">
+      <c r="AO4">
         <v>0.101196767</v>
       </c>
-      <c r="AG4">
+      <c r="AP4">
+        <v>247.8845000019382</v>
+      </c>
+      <c r="AQ4">
+        <v>1.75</v>
+      </c>
+      <c r="AR4">
+        <v>11619099.21864292</v>
+      </c>
+      <c r="AS4">
+        <v>24283917.3669637</v>
+      </c>
+      <c r="AT4">
+        <v>8094639.122321233</v>
+      </c>
+      <c r="AU4">
+        <v>3.8</v>
+      </c>
+      <c r="AV4">
         <v>7676982.965060026</v>
       </c>
-      <c r="AH4">
-        <v>11619099.21864292</v>
-      </c>
-      <c r="AI4">
-        <v>24283917.3669637</v>
-      </c>
-      <c r="AJ4">
-        <v>8094639.122321233</v>
-      </c>
-      <c r="AK4">
+      <c r="AW4">
         <v>15771622.08738126</v>
       </c>
-      <c r="AM4">
+      <c r="AY4">
         <v>0.101196767</v>
       </c>
-      <c r="AN4">
+      <c r="AZ4">
+        <v>506625</v>
+      </c>
+      <c r="BA4">
+        <v>31129.21229787906</v>
+      </c>
+      <c r="BB4">
+        <v>23667.44073987962</v>
+      </c>
+      <c r="BC4">
+        <v>49464.95114634839</v>
+      </c>
+      <c r="BD4">
+        <v>16488.3170487828</v>
+      </c>
+      <c r="BE4">
+        <v>0.035</v>
+      </c>
+      <c r="BF4">
         <v>11907.74816678289</v>
       </c>
-      <c r="AO4">
-        <v>23667.44073987962</v>
-      </c>
-      <c r="AP4">
-        <v>49464.95114634839</v>
-      </c>
-      <c r="AQ4">
-        <v>16488.3170487828</v>
-      </c>
-      <c r="AR4">
+      <c r="BG4">
         <v>28396.06521556569</v>
       </c>
-      <c r="AT4">
+      <c r="BI4">
         <v>0.101196767</v>
       </c>
-      <c r="AU4">
+      <c r="BJ4">
         <v>0.8353143371192119</v>
       </c>
-      <c r="AV4">
+      <c r="BK4">
         <v>354636.3718381014</v>
       </c>
-      <c r="AW4">
+      <c r="BL4">
         <v>178517.5476306509</v>
       </c>
-      <c r="AX4">
+      <c r="BM4">
         <v>15771622.08738126</v>
       </c>
-      <c r="AY4">
+      <c r="BN4">
         <v>28396.06521556569</v>
       </c>
-      <c r="AZ4">
+      <c r="BO4">
         <v>7737.670133843259</v>
       </c>
-      <c r="BA4">
+      <c r="BP4">
         <v>64574016.21615976</v>
       </c>
-      <c r="BB4">
+      <c r="BQ4">
         <v>48233106.47396034</v>
       </c>
     </row>
-    <row r="5" spans="1:54">
+    <row r="5" spans="1:69">
       <c r="B5">
         <v>0.120942421</v>
       </c>
@@ -1104,112 +1323,157 @@
         <v>28.26167660908001</v>
       </c>
       <c r="O5">
+        <v>2.3625</v>
+      </c>
+      <c r="P5">
         <v>130573.9597052857</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>273683.0195422788</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>91227.67318075959</v>
       </c>
-      <c r="R5">
+      <c r="S5">
+        <v>5.019552002909216</v>
+      </c>
+      <c r="T5">
         <v>3978.2459399057</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>337736.5042732443</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>428964.1774540039</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>0.120942421</v>
       </c>
-      <c r="W5">
+      <c r="Y5">
+        <v>113.565</v>
+      </c>
+      <c r="Z5">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA5">
+        <v>650.9006947478356</v>
+      </c>
+      <c r="AB5">
+        <v>3.7935</v>
+      </c>
+      <c r="AC5">
         <v>267092.6944554226</v>
       </c>
-      <c r="X5">
+      <c r="AD5">
         <v>558223.7314118333</v>
       </c>
-      <c r="Y5">
+      <c r="AE5">
         <v>186074.5771372778</v>
       </c>
-      <c r="Z5">
+      <c r="AF5">
         <v>186074.5771372778</v>
       </c>
-      <c r="AB5">
+      <c r="AH5">
         <v>0.120942421</v>
       </c>
-      <c r="AC5">
+      <c r="AI5">
+        <v>-2.89745495</v>
+      </c>
+      <c r="AJ5">
+        <v>20</v>
+      </c>
+      <c r="AK5">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL5">
         <v>1015677.702450294</v>
       </c>
-      <c r="AD5">
+      <c r="AM5">
         <v>8247.302943896384</v>
       </c>
-      <c r="AF5">
+      <c r="AO5">
         <v>0.120942421</v>
       </c>
-      <c r="AG5">
+      <c r="AP5">
+        <v>219.7384304664282</v>
+      </c>
+      <c r="AQ5">
+        <v>1.75</v>
+      </c>
+      <c r="AR5">
+        <v>10487708.54803861</v>
+      </c>
+      <c r="AS5">
+        <v>21919310.86540068</v>
+      </c>
+      <c r="AT5">
+        <v>7306436.955133561</v>
+      </c>
+      <c r="AU5">
+        <v>3.8</v>
+      </c>
+      <c r="AV5">
         <v>6805299.19154528</v>
       </c>
-      <c r="AH5">
-        <v>10487708.54803861</v>
-      </c>
-      <c r="AI5">
-        <v>21919310.86540068</v>
-      </c>
-      <c r="AJ5">
-        <v>7306436.955133561</v>
-      </c>
-      <c r="AK5">
+      <c r="AW5">
         <v>14111736.14667884</v>
       </c>
-      <c r="AM5">
+      <c r="AY5">
         <v>0.120942421</v>
       </c>
-      <c r="AN5">
+      <c r="AZ5">
+        <v>506625</v>
+      </c>
+      <c r="BA5">
+        <v>27623.78542969789</v>
+      </c>
+      <c r="BB5">
+        <v>21933.5029976576</v>
+      </c>
+      <c r="BC5">
+        <v>45841.02126510438</v>
+      </c>
+      <c r="BD5">
+        <v>15280.34042170146</v>
+      </c>
+      <c r="BE5">
+        <v>0.035</v>
+      </c>
+      <c r="BF5">
         <v>10566.82954783603</v>
       </c>
-      <c r="AO5">
-        <v>21933.5029976576</v>
-      </c>
-      <c r="AP5">
-        <v>45841.02126510438</v>
-      </c>
-      <c r="AQ5">
-        <v>15280.34042170146</v>
-      </c>
-      <c r="AR5">
+      <c r="BG5">
         <v>25847.16996953749</v>
       </c>
-      <c r="AT5">
+      <c r="BI5">
         <v>0.120942421</v>
       </c>
-      <c r="AU5">
+      <c r="BJ5">
         <v>0.7883402072096394</v>
       </c>
-      <c r="AV5">
+      <c r="BK5">
         <v>428964.1774540039</v>
       </c>
-      <c r="AW5">
+      <c r="BL5">
         <v>186074.5771372778</v>
       </c>
-      <c r="AX5">
+      <c r="BM5">
         <v>14111736.14667884</v>
       </c>
-      <c r="AY5">
+      <c r="BN5">
         <v>25847.16996953749</v>
       </c>
-      <c r="AZ5">
+      <c r="BO5">
         <v>8247.302943896384</v>
       </c>
-      <c r="BA5">
+      <c r="BP5">
         <v>62573200.22026533</v>
       </c>
-      <c r="BB5">
+      <c r="BQ5">
         <v>47812330.84608178</v>
       </c>
     </row>
-    <row r="6" spans="1:54">
+    <row r="6" spans="1:69">
       <c r="B6">
         <v>0.136020823</v>
       </c>
@@ -1247,112 +1511,157 @@
         <v>30.28510891075</v>
       </c>
       <c r="O6">
+        <v>2.3625</v>
+      </c>
+      <c r="P6">
         <v>148578.1300772368</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>311419.7606418884</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>103806.5868806295</v>
       </c>
-      <c r="R6">
+      <c r="S6">
+        <v>6.176729885409196</v>
+      </c>
+      <c r="T6">
         <v>4895.367270681058</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>415596.283917194</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>519402.8707978235</v>
       </c>
-      <c r="V6">
+      <c r="X6">
         <v>0.136020823</v>
       </c>
-      <c r="W6">
+      <c r="Y6">
+        <v>113.565</v>
+      </c>
+      <c r="Z6">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA6">
+        <v>698.1629033239951</v>
+      </c>
+      <c r="AB6">
+        <v>3.7935</v>
+      </c>
+      <c r="AC6">
         <v>279543.45683402</v>
       </c>
-      <c r="X6">
+      <c r="AD6">
         <v>584245.8247831018</v>
       </c>
-      <c r="Y6">
+      <c r="AE6">
         <v>194748.6082610339</v>
       </c>
-      <c r="Z6">
+      <c r="AF6">
         <v>194748.6082610339</v>
       </c>
-      <c r="AB6">
+      <c r="AH6">
         <v>0.136020823</v>
       </c>
-      <c r="AC6">
+      <c r="AI6">
+        <v>-3.10784053</v>
+      </c>
+      <c r="AJ6">
+        <v>20</v>
+      </c>
+      <c r="AK6">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL6">
         <v>1089426.542798294</v>
       </c>
-      <c r="AD6">
+      <c r="AM6">
         <v>8846.143527522143</v>
       </c>
-      <c r="AF6">
+      <c r="AO6">
         <v>0.136020823</v>
       </c>
-      <c r="AG6">
+      <c r="AP6">
+        <v>208.4092359273254</v>
+      </c>
+      <c r="AQ6">
+        <v>1.75</v>
+      </c>
+      <c r="AR6">
+        <v>10026281.91161113</v>
+      </c>
+      <c r="AS6">
+        <v>20954929.19526725</v>
+      </c>
+      <c r="AT6">
+        <v>6984976.398422417</v>
+      </c>
+      <c r="AU6">
+        <v>3.8</v>
+      </c>
+      <c r="AV6">
         <v>6454434.036669268</v>
       </c>
-      <c r="AH6">
-        <v>10026281.91161113</v>
-      </c>
-      <c r="AI6">
-        <v>20954929.19526725</v>
-      </c>
-      <c r="AJ6">
-        <v>6984976.398422417</v>
-      </c>
-      <c r="AK6">
+      <c r="AW6">
         <v>13439410.43509169</v>
       </c>
-      <c r="AM6">
+      <c r="AY6">
         <v>0.136020823</v>
       </c>
-      <c r="AN6">
+      <c r="AZ6">
+        <v>506625</v>
+      </c>
+      <c r="BA6">
+        <v>26230.47427393991</v>
+      </c>
+      <c r="BB6">
+        <v>21220.07959541303</v>
+      </c>
+      <c r="BC6">
+        <v>44349.96635441323</v>
+      </c>
+      <c r="BD6">
+        <v>14783.32211813774</v>
+      </c>
+      <c r="BE6">
+        <v>0.035</v>
+      </c>
+      <c r="BF6">
         <v>10033.85112865946</v>
       </c>
-      <c r="AO6">
-        <v>21220.07959541303</v>
-      </c>
-      <c r="AP6">
-        <v>44349.96635441323</v>
-      </c>
-      <c r="AQ6">
-        <v>14783.32211813774</v>
-      </c>
-      <c r="AR6">
+      <c r="BG6">
         <v>24817.1732467972</v>
       </c>
-      <c r="AT6">
+      <c r="BI6">
         <v>0.136020823</v>
       </c>
-      <c r="AU6">
+      <c r="BJ6">
         <v>0.7387812416323283</v>
       </c>
-      <c r="AV6">
+      <c r="BK6">
         <v>519402.8707978235</v>
       </c>
-      <c r="AW6">
+      <c r="BL6">
         <v>194748.6082610339</v>
       </c>
-      <c r="AX6">
+      <c r="BM6">
         <v>13439410.43509169</v>
       </c>
-      <c r="AY6">
+      <c r="BN6">
         <v>24817.1732467972</v>
       </c>
-      <c r="AZ6">
+      <c r="BO6">
         <v>8846.143527522143</v>
       </c>
-      <c r="BA6">
+      <c r="BP6">
         <v>60214534.69972026</v>
       </c>
-      <c r="BB6">
+      <c r="BQ6">
         <v>46027309.4687954</v>
       </c>
     </row>
-    <row r="7" spans="1:54">
+    <row r="7" spans="1:69">
       <c r="B7">
         <v>0.147982026</v>
       </c>
@@ -1390,112 +1699,157 @@
         <v>32.45341153634</v>
       </c>
       <c r="O7">
+        <v>2.3625</v>
+      </c>
+      <c r="P7">
         <v>169064.8027027764</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>354359.8264650193</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>118119.9421550064</v>
       </c>
-      <c r="R7">
+      <c r="S7">
+        <v>7.600676723915228</v>
+      </c>
+      <c r="T7">
         <v>6023.916337539015</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>511405.397405656</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>629525.3395606624</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>0.147982026</v>
       </c>
-      <c r="W7">
+      <c r="Y7">
+        <v>113.565</v>
+      </c>
+      <c r="Z7">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA7">
+        <v>753.4222145291873</v>
+      </c>
+      <c r="AB7">
+        <v>3.7935</v>
+      </c>
+      <c r="AC7">
         <v>293732.77298329</v>
       </c>
-      <c r="X7">
+      <c r="AD7">
         <v>613901.495535076</v>
       </c>
-      <c r="Y7">
+      <c r="AE7">
         <v>204633.8318450253</v>
       </c>
-      <c r="Z7">
+      <c r="AF7">
         <v>204633.8318450253</v>
       </c>
-      <c r="AB7">
+      <c r="AH7">
         <v>0.147982026</v>
       </c>
-      <c r="AC7">
+      <c r="AI7">
+        <v>-3.35382485</v>
+      </c>
+      <c r="AJ7">
+        <v>20</v>
+      </c>
+      <c r="AK7">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL7">
         <v>1175654.212697492</v>
       </c>
-      <c r="AD7">
+      <c r="AM7">
         <v>9546.312207103634</v>
       </c>
-      <c r="AF7">
+      <c r="AO7">
         <v>0.147982026</v>
       </c>
-      <c r="AG7">
+      <c r="AP7">
+        <v>205.7977898636805</v>
+      </c>
+      <c r="AQ7">
+        <v>1.75</v>
+      </c>
+      <c r="AR7">
+        <v>9919392.95024522</v>
+      </c>
+      <c r="AS7">
+        <v>20731531.26601251</v>
+      </c>
+      <c r="AT7">
+        <v>6910510.422004169</v>
+      </c>
+      <c r="AU7">
+        <v>3.8</v>
+      </c>
+      <c r="AV7">
         <v>6373557.552078187</v>
       </c>
-      <c r="AH7">
-        <v>9919392.95024522</v>
-      </c>
-      <c r="AI7">
-        <v>20731531.26601251</v>
-      </c>
-      <c r="AJ7">
-        <v>6910510.422004169</v>
-      </c>
-      <c r="AK7">
+      <c r="AW7">
         <v>13284067.97408235</v>
       </c>
-      <c r="AM7">
+      <c r="AY7">
         <v>0.147982026</v>
       </c>
-      <c r="AN7">
+      <c r="AZ7">
+        <v>506625</v>
+      </c>
+      <c r="BA7">
+        <v>25933.17149112898</v>
+      </c>
+      <c r="BB7">
+        <v>21065.90485034926</v>
+      </c>
+      <c r="BC7">
+        <v>44027.74113722994</v>
+      </c>
+      <c r="BD7">
+        <v>14675.91371240998</v>
+      </c>
+      <c r="BE7">
+        <v>0.035</v>
+      </c>
+      <c r="BF7">
         <v>9920.124940116057</v>
       </c>
-      <c r="AO7">
-        <v>21065.90485034926</v>
-      </c>
-      <c r="AP7">
-        <v>44027.74113722994</v>
-      </c>
-      <c r="AQ7">
-        <v>14675.91371240998</v>
-      </c>
-      <c r="AR7">
+      <c r="BG7">
         <v>24596.03865252604</v>
       </c>
-      <c r="AT7">
+      <c r="BI7">
         <v>0.147982026</v>
       </c>
-      <c r="AU7">
+      <c r="BJ7">
         <v>0.6874027221864865</v>
       </c>
-      <c r="AV7">
+      <c r="BK7">
         <v>629525.3395606624</v>
       </c>
-      <c r="AW7">
+      <c r="BL7">
         <v>204633.8318450253</v>
       </c>
-      <c r="AX7">
+      <c r="BM7">
         <v>13284067.97408235</v>
       </c>
-      <c r="AY7">
+      <c r="BN7">
         <v>24596.03865252604</v>
       </c>
-      <c r="AZ7">
+      <c r="BO7">
         <v>9546.312207103634</v>
       </c>
-      <c r="BA7">
+      <c r="BP7">
         <v>57440515.48091648</v>
       </c>
-      <c r="BB7">
+      <c r="BQ7">
         <v>43288145.9845688</v>
       </c>
     </row>
-    <row r="8" spans="1:54">
+    <row r="8" spans="1:69">
       <c r="B8">
         <v>0.157618968</v>
       </c>
@@ -1533,112 +1887,157 @@
         <v>34.7769565471</v>
       </c>
       <c r="O8">
+        <v>2.3625</v>
+      </c>
+      <c r="P8">
         <v>192376.2757600412</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>403220.6739930465</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>134406.8913310155</v>
       </c>
-      <c r="R8">
+      <c r="S8">
+        <v>9.352891759690197</v>
+      </c>
+      <c r="T8">
         <v>7412.634364142466</v>
       </c>
-      <c r="S8">
+      <c r="U8">
         <v>629301.7715391781</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>763708.6628701936</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>0.157618968</v>
       </c>
-      <c r="W8">
+      <c r="Y8">
+        <v>113.565</v>
+      </c>
+      <c r="Z8">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA8">
+        <v>818.0430632332974</v>
+      </c>
+      <c r="AB8">
+        <v>3.7935</v>
+      </c>
+      <c r="AC8">
         <v>309871.7177343953</v>
       </c>
-      <c r="X8">
+      <c r="AD8">
         <v>647631.8900648861</v>
       </c>
-      <c r="Y8">
+      <c r="AE8">
         <v>215877.2966882953</v>
       </c>
-      <c r="Z8">
+      <c r="AF8">
         <v>215877.2966882953</v>
       </c>
-      <c r="AB8">
+      <c r="AH8">
         <v>0.157618968</v>
       </c>
-      <c r="AC8">
+      <c r="AI8">
+        <v>-3.64148163</v>
+      </c>
+      <c r="AJ8">
+        <v>20</v>
+      </c>
+      <c r="AK8">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL8">
         <v>1276489.802015162</v>
       </c>
-      <c r="AD8">
+      <c r="AM8">
         <v>10365.09719236311</v>
       </c>
-      <c r="AF8">
+      <c r="AO8">
         <v>0.157618968</v>
       </c>
-      <c r="AG8">
+      <c r="AP8">
+        <v>209.1017559973216</v>
+      </c>
+      <c r="AQ8">
+        <v>1.75</v>
+      </c>
+      <c r="AR8">
+        <v>10054593.62356204</v>
+      </c>
+      <c r="AS8">
+        <v>21014100.67324466</v>
+      </c>
+      <c r="AT8">
+        <v>7004700.224414887</v>
+      </c>
+      <c r="AU8">
+        <v>3.8</v>
+      </c>
+      <c r="AV8">
         <v>6475881.38323705</v>
       </c>
-      <c r="AH8">
-        <v>10054593.62356204</v>
-      </c>
-      <c r="AI8">
-        <v>21014100.67324466</v>
-      </c>
-      <c r="AJ8">
-        <v>7004700.224414887</v>
-      </c>
-      <c r="AK8">
+      <c r="AW8">
         <v>13480581.60765194</v>
       </c>
-      <c r="AM8">
+      <c r="AY8">
         <v>0.157618968</v>
       </c>
-      <c r="AN8">
+      <c r="AZ8">
+        <v>506625</v>
+      </c>
+      <c r="BA8">
+        <v>26381.37683045963</v>
+      </c>
+      <c r="BB8">
+        <v>21298.06684798061</v>
+      </c>
+      <c r="BC8">
+        <v>44512.95971227947</v>
+      </c>
+      <c r="BD8">
+        <v>14837.65323742649</v>
+      </c>
+      <c r="BE8">
+        <v>0.035</v>
+      </c>
+      <c r="BF8">
         <v>10091.57535320988</v>
       </c>
-      <c r="AO8">
-        <v>21298.06684798061</v>
-      </c>
-      <c r="AP8">
-        <v>44512.95971227947</v>
-      </c>
-      <c r="AQ8">
-        <v>14837.65323742649</v>
-      </c>
-      <c r="AR8">
+      <c r="BG8">
         <v>24929.22859063637</v>
       </c>
-      <c r="AT8">
+      <c r="BI8">
         <v>0.157618968</v>
       </c>
-      <c r="AU8">
+      <c r="BJ8">
         <v>0.6348569812048133</v>
       </c>
-      <c r="AV8">
+      <c r="BK8">
         <v>763708.6628701936</v>
       </c>
-      <c r="AW8">
+      <c r="BL8">
         <v>215877.2966882953</v>
       </c>
-      <c r="AX8">
+      <c r="BM8">
         <v>13480581.60765194</v>
       </c>
-      <c r="AY8">
+      <c r="BN8">
         <v>24929.22859063637</v>
       </c>
-      <c r="AZ8">
+      <c r="BO8">
         <v>10365.09719236311</v>
       </c>
-      <c r="BA8">
+      <c r="BP8">
         <v>54188771.07824926</v>
       </c>
-      <c r="BB8">
+      <c r="BQ8">
         <v>39693309.18525584</v>
       </c>
     </row>
-    <row r="9" spans="1:54">
+    <row r="9" spans="1:69">
       <c r="B9">
         <v>0.165888756</v>
       </c>
@@ -1676,112 +2075,157 @@
         <v>37.2668592164</v>
       </c>
       <c r="O9">
+        <v>2.3625</v>
+      </c>
+      <c r="P9">
         <v>218902.0516243689</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>458818.7002046772</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>152939.5667348924</v>
       </c>
-      <c r="R9">
+      <c r="S9">
+        <v>11.50905242778705</v>
+      </c>
+      <c r="T9">
         <v>9121.499501642627</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>774377.3014415355</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>927316.8681764279</v>
       </c>
-      <c r="V9">
+      <c r="X9">
         <v>0.165888756</v>
       </c>
-      <c r="W9">
+      <c r="Y9">
+        <v>113.565</v>
+      </c>
+      <c r="Z9">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA9">
+        <v>893.370928704979</v>
+      </c>
+      <c r="AB9">
+        <v>3.7935</v>
+      </c>
+      <c r="AC9">
         <v>328131.6420708038</v>
       </c>
-      <c r="X9">
+      <c r="AD9">
         <v>685795.13192798</v>
       </c>
-      <c r="Y9">
+      <c r="AE9">
         <v>228598.3773093267</v>
       </c>
-      <c r="Z9">
+      <c r="AF9">
         <v>228598.3773093267</v>
       </c>
-      <c r="AB9">
+      <c r="AH9">
         <v>0.165888756</v>
       </c>
-      <c r="AC9">
+      <c r="AI9">
+        <v>-3.97680021</v>
+      </c>
+      <c r="AJ9">
+        <v>20</v>
+      </c>
+      <c r="AK9">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL9">
         <v>1394032.821941423</v>
       </c>
-      <c r="AD9">
+      <c r="AM9">
         <v>11319.54651416436</v>
       </c>
-      <c r="AF9">
+      <c r="AO9">
         <v>0.165888756</v>
       </c>
-      <c r="AG9">
+      <c r="AP9">
+        <v>216.6027791360602</v>
+      </c>
+      <c r="AQ9">
+        <v>1.75</v>
+      </c>
+      <c r="AR9">
+        <v>10360361.6429301</v>
+      </c>
+      <c r="AS9">
+        <v>21653155.8337239</v>
+      </c>
+      <c r="AT9">
+        <v>7217718.6112413</v>
+      </c>
+      <c r="AU9">
+        <v>3.8</v>
+      </c>
+      <c r="AV9">
         <v>6708188.069843786</v>
       </c>
-      <c r="AH9">
-        <v>10360361.6429301</v>
-      </c>
-      <c r="AI9">
-        <v>21653155.8337239</v>
-      </c>
-      <c r="AJ9">
-        <v>7217718.6112413</v>
-      </c>
-      <c r="AK9">
+      <c r="AW9">
         <v>13925906.68108509</v>
       </c>
-      <c r="AM9">
+      <c r="AY9">
         <v>0.165888756</v>
       </c>
-      <c r="AN9">
+      <c r="AZ9">
+        <v>506625</v>
+      </c>
+      <c r="BA9">
+        <v>27360.24210014843</v>
+      </c>
+      <c r="BB9">
+        <v>21799.68378723252</v>
+      </c>
+      <c r="BC9">
+        <v>45561.33911531597</v>
+      </c>
+      <c r="BD9">
+        <v>15187.11303843866</v>
+      </c>
+      <c r="BE9">
+        <v>0.035</v>
+      </c>
+      <c r="BF9">
         <v>10466.01724429039</v>
       </c>
-      <c r="AO9">
-        <v>21799.68378723252</v>
-      </c>
-      <c r="AP9">
-        <v>45561.33911531597</v>
-      </c>
-      <c r="AQ9">
-        <v>15187.11303843866</v>
-      </c>
-      <c r="AR9">
+      <c r="BG9">
         <v>25653.13028272904</v>
       </c>
-      <c r="AT9">
+      <c r="BI9">
         <v>0.165888756</v>
       </c>
-      <c r="AU9">
+      <c r="BJ9">
         <v>0.5820548250687143</v>
       </c>
-      <c r="AV9">
+      <c r="BK9">
         <v>927316.8681764279</v>
       </c>
-      <c r="AW9">
+      <c r="BL9">
         <v>228598.3773093267</v>
       </c>
-      <c r="AX9">
+      <c r="BM9">
         <v>13925906.68108509</v>
       </c>
-      <c r="AY9">
+      <c r="BN9">
         <v>25653.13028272904</v>
       </c>
-      <c r="AZ9">
+      <c r="BO9">
         <v>11319.54651416436</v>
       </c>
-      <c r="BA9">
+      <c r="BP9">
         <v>50385790.65701589</v>
       </c>
-      <c r="BB9">
+      <c r="BQ9">
         <v>35266996.05364815</v>
       </c>
     </row>
-    <row r="10" spans="1:54">
+    <row r="10" spans="1:69">
       <c r="B10">
         <v>0.173317224</v>
       </c>
@@ -1819,112 +2263,157 @@
         <v>39.935029443</v>
       </c>
       <c r="O10">
+        <v>2.3625</v>
+      </c>
+      <c r="P10">
         <v>249085.3262918386</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>522082.8439076938</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>174027.6146358979</v>
       </c>
-      <c r="R10">
+      <c r="S10">
+        <v>14.16228132386285</v>
+      </c>
+      <c r="T10">
         <v>11224.3160632275</v>
       </c>
-      <c r="S10">
+      <c r="U10">
         <v>952897.6657844185</v>
       </c>
-      <c r="T10">
+      <c r="V10">
         <v>1126925.280420316</v>
       </c>
-      <c r="V10">
+      <c r="X10">
         <v>0.173317224</v>
       </c>
-      <c r="W10">
+      <c r="Y10">
+        <v>113.565</v>
+      </c>
+      <c r="Z10">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA10">
+        <v>980.7557763868197</v>
+      </c>
+      <c r="AB10">
+        <v>3.7935</v>
+      </c>
+      <c r="AC10">
         <v>348651.8709341277</v>
       </c>
-      <c r="X10">
+      <c r="AD10">
         <v>728682.4102523269</v>
       </c>
-      <c r="Y10">
+      <c r="AE10">
         <v>242894.1367507756</v>
       </c>
-      <c r="Z10">
+      <c r="AF10">
         <v>242894.1367507756</v>
       </c>
-      <c r="AB10">
+      <c r="AH10">
         <v>0.173317224</v>
       </c>
-      <c r="AC10">
+      <c r="AI10">
+        <v>-4.3657899</v>
+      </c>
+      <c r="AJ10">
+        <v>20</v>
+      </c>
+      <c r="AK10">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL10">
         <v>1530389.783976692</v>
       </c>
-      <c r="AD10">
+      <c r="AM10">
         <v>12426.76504589074</v>
       </c>
-      <c r="AF10">
+      <c r="AO10">
         <v>0.173317224</v>
       </c>
-      <c r="AG10">
+      <c r="AP10">
+        <v>227.6558293966891</v>
+      </c>
+      <c r="AQ10">
+        <v>1.75</v>
+      </c>
+      <c r="AR10">
+        <v>10808052.69775458</v>
+      </c>
+      <c r="AS10">
+        <v>22588830.13830708</v>
+      </c>
+      <c r="AT10">
+        <v>7529610.04610236</v>
+      </c>
+      <c r="AU10">
+        <v>3.8</v>
+      </c>
+      <c r="AV10">
         <v>7050501.036415461</v>
       </c>
-      <c r="AH10">
-        <v>10808052.69775458</v>
-      </c>
-      <c r="AI10">
-        <v>22588830.13830708</v>
-      </c>
-      <c r="AJ10">
-        <v>7529610.04610236</v>
-      </c>
-      <c r="AK10">
+      <c r="AW10">
         <v>14580111.08251782</v>
       </c>
-      <c r="AM10">
+      <c r="AY10">
         <v>0.173317224</v>
       </c>
-      <c r="AN10">
+      <c r="AZ10">
+        <v>506625</v>
+      </c>
+      <c r="BA10">
+        <v>28789.65572363351</v>
+      </c>
+      <c r="BB10">
+        <v>22519.47199355717</v>
+      </c>
+      <c r="BC10">
+        <v>47065.69646653448</v>
+      </c>
+      <c r="BD10">
+        <v>15688.56548884483</v>
+      </c>
+      <c r="BE10">
+        <v>0.035</v>
+      </c>
+      <c r="BF10">
         <v>11012.80581355298</v>
       </c>
-      <c r="AO10">
-        <v>22519.47199355717</v>
-      </c>
-      <c r="AP10">
-        <v>47065.69646653448</v>
-      </c>
-      <c r="AQ10">
-        <v>15688.56548884483</v>
-      </c>
-      <c r="AR10">
+      <c r="BG10">
         <v>26701.37130239781</v>
       </c>
-      <c r="AT10">
+      <c r="BI10">
         <v>0.173317224</v>
       </c>
-      <c r="AU10">
+      <c r="BJ10">
         <v>0.5298388516393557</v>
       </c>
-      <c r="AV10">
+      <c r="BK10">
         <v>1126925.280420316</v>
       </c>
-      <c r="AW10">
+      <c r="BL10">
         <v>242894.1367507756</v>
       </c>
-      <c r="AX10">
+      <c r="BM10">
         <v>14580111.08251782</v>
       </c>
-      <c r="AY10">
+      <c r="BN10">
         <v>26701.37130239781</v>
       </c>
-      <c r="AZ10">
+      <c r="BO10">
         <v>12426.76504589074</v>
       </c>
-      <c r="BA10">
+      <c r="BP10">
         <v>45947880.86902121</v>
       </c>
-      <c r="BB10">
+      <c r="BQ10">
         <v>29958822.23298401</v>
       </c>
     </row>
-    <row r="11" spans="1:54">
+    <row r="11" spans="1:69">
       <c r="B11">
         <v>0.180342752</v>
       </c>
@@ -1962,112 +2451,157 @@
         <v>42.79423097310001</v>
       </c>
       <c r="O11">
+        <v>2.3625</v>
+      </c>
+      <c r="P11">
         <v>283430.4184386253</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>594070.1570473588</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>198023.3856824529</v>
       </c>
-      <c r="R11">
+      <c r="S11">
+        <v>17.42717006377378</v>
+      </c>
+      <c r="T11">
         <v>13811.90363404391</v>
       </c>
-      <c r="S11">
+      <c r="U11">
         <v>1172573.068931853</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>1370596.454614306</v>
       </c>
-      <c r="V11">
+      <c r="X11">
         <v>0.180342752</v>
       </c>
-      <c r="W11">
+      <c r="Y11">
+        <v>113.565</v>
+      </c>
+      <c r="Z11">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA11">
+        <v>1081.953966962111</v>
+      </c>
+      <c r="AB11">
+        <v>3.7935</v>
+      </c>
+      <c r="AC11">
         <v>371632.0327286149</v>
       </c>
-      <c r="X11">
+      <c r="AD11">
         <v>776710.948402805</v>
       </c>
-      <c r="Y11">
+      <c r="AE11">
         <v>258903.6494676017</v>
       </c>
-      <c r="Z11">
+      <c r="AF11">
         <v>258903.6494676017</v>
       </c>
-      <c r="AB11">
+      <c r="AH11">
         <v>0.180342752</v>
       </c>
-      <c r="AC11">
+      <c r="AI11">
+        <v>-4.81626906</v>
+      </c>
+      <c r="AJ11">
+        <v>20</v>
+      </c>
+      <c r="AK11">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL11">
         <v>1688301.34640859</v>
       </c>
-      <c r="AD11">
+      <c r="AM11">
         <v>13709.00693283775</v>
       </c>
-      <c r="AF11">
+      <c r="AO11">
         <v>0.180342752</v>
       </c>
-      <c r="AG11">
+      <c r="AP11">
+        <v>241.9290801031782</v>
+      </c>
+      <c r="AQ11">
+        <v>1.75</v>
+      </c>
+      <c r="AR11">
+        <v>11381391.3654453</v>
+      </c>
+      <c r="AS11">
+        <v>23787107.95378068</v>
+      </c>
+      <c r="AT11">
+        <v>7929035.984593559</v>
+      </c>
+      <c r="AU11">
+        <v>3.8</v>
+      </c>
+      <c r="AV11">
         <v>7492543.610795427</v>
       </c>
-      <c r="AH11">
-        <v>11381391.3654453</v>
-      </c>
-      <c r="AI11">
-        <v>23787107.95378068</v>
-      </c>
-      <c r="AJ11">
-        <v>7929035.984593559</v>
-      </c>
-      <c r="AK11">
+      <c r="AW11">
         <v>15421579.59538899</v>
       </c>
-      <c r="AM11">
+      <c r="AY11">
         <v>0.180342752</v>
       </c>
-      <c r="AN11">
+      <c r="AZ11">
+        <v>506625</v>
+      </c>
+      <c r="BA11">
+        <v>30628.61766824152</v>
+      </c>
+      <c r="BB11">
+        <v>23424.795284685</v>
+      </c>
+      <c r="BC11">
+        <v>48957.82214499165</v>
+      </c>
+      <c r="BD11">
+        <v>16319.27404833055</v>
+      </c>
+      <c r="BE11">
+        <v>0.035</v>
+      </c>
+      <c r="BF11">
         <v>11716.2574626068</v>
       </c>
-      <c r="AO11">
-        <v>23424.795284685</v>
-      </c>
-      <c r="AP11">
-        <v>48957.82214499165</v>
-      </c>
-      <c r="AQ11">
-        <v>16319.27404833055</v>
-      </c>
-      <c r="AR11">
+      <c r="BG11">
         <v>28035.53151093735</v>
       </c>
-      <c r="AT11">
+      <c r="BI11">
         <v>0.180342752</v>
       </c>
-      <c r="AU11">
+      <c r="BJ11">
         <v>0.4789613497360087</v>
       </c>
-      <c r="AV11">
+      <c r="BK11">
         <v>1370596.454614306</v>
       </c>
-      <c r="AW11">
+      <c r="BL11">
         <v>258903.6494676017</v>
       </c>
-      <c r="AX11">
+      <c r="BM11">
         <v>15421579.59538899</v>
       </c>
-      <c r="AY11">
+      <c r="BN11">
         <v>28035.53151093735</v>
       </c>
-      <c r="AZ11">
+      <c r="BO11">
         <v>13709.00693283775</v>
       </c>
-      <c r="BA11">
+      <c r="BP11">
         <v>40783573.42992105</v>
       </c>
-      <c r="BB11">
+      <c r="BQ11">
         <v>23690749.19200638</v>
       </c>
     </row>
-    <row r="12" spans="1:54">
+    <row r="12" spans="1:69">
       <c r="B12">
         <v>0.187262022</v>
       </c>
@@ -2105,112 +2639,157 @@
         <v>45.8581409833</v>
       </c>
       <c r="O12">
+        <v>2.3625</v>
+      </c>
+      <c r="P12">
         <v>322511.180271751</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>675983.4338495901</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>225327.8112831967</v>
       </c>
-      <c r="R12">
+      <c r="S12">
+        <v>21.44472718535188</v>
+      </c>
+      <c r="T12">
         <v>16996.01853075063</v>
       </c>
-      <c r="S12">
+      <c r="U12">
         <v>1442891.156516851</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>1668218.967800047</v>
       </c>
-      <c r="V12">
+      <c r="X12">
         <v>0.187262022</v>
       </c>
-      <c r="W12">
+      <c r="Y12">
+        <v>113.565</v>
+      </c>
+      <c r="Z12">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA12">
+        <v>1198.803566989049</v>
+      </c>
+      <c r="AB12">
+        <v>3.7935</v>
+      </c>
+      <c r="AC12">
         <v>397249.764789903</v>
       </c>
-      <c r="X12">
+      <c r="AD12">
         <v>830252.0084108972</v>
       </c>
-      <c r="Y12">
+      <c r="AE12">
         <v>276750.669470299</v>
       </c>
-      <c r="Z12">
+      <c r="AF12">
         <v>276750.669470299</v>
       </c>
-      <c r="AB12">
+      <c r="AH12">
         <v>0.187262022</v>
       </c>
-      <c r="AC12">
+      <c r="AI12">
+        <v>-5.33641976</v>
+      </c>
+      <c r="AJ12">
+        <v>20</v>
+      </c>
+      <c r="AK12">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL12">
         <v>1870635.662910703</v>
       </c>
-      <c r="AD12">
+      <c r="AM12">
         <v>15189.56158283491</v>
       </c>
-      <c r="AF12">
+      <c r="AO12">
         <v>0.187262022</v>
       </c>
-      <c r="AG12">
+      <c r="AP12">
+        <v>259.3489989216191</v>
+      </c>
+      <c r="AQ12">
+        <v>1.75</v>
+      </c>
+      <c r="AR12">
+        <v>12074311.72750422</v>
+      </c>
+      <c r="AS12">
+        <v>25235311.51048382</v>
+      </c>
+      <c r="AT12">
+        <v>8411770.503494605</v>
+      </c>
+      <c r="AU12">
+        <v>3.8</v>
+      </c>
+      <c r="AV12">
         <v>8032038.496602542</v>
       </c>
-      <c r="AH12">
-        <v>12074311.72750422</v>
-      </c>
-      <c r="AI12">
-        <v>25235311.51048382</v>
-      </c>
-      <c r="AJ12">
-        <v>8411770.503494605</v>
-      </c>
-      <c r="AK12">
+      <c r="AW12">
         <v>16443809.00009715</v>
       </c>
-      <c r="AM12">
+      <c r="AY12">
         <v>0.187262022</v>
       </c>
-      <c r="AN12">
+      <c r="AZ12">
+        <v>506625</v>
+      </c>
+      <c r="BA12">
+        <v>32868.60696671237</v>
+      </c>
+      <c r="BB12">
+        <v>24498.67251722605</v>
+      </c>
+      <c r="BC12">
+        <v>51202.22556100244</v>
+      </c>
+      <c r="BD12">
+        <v>17067.40852033415</v>
+      </c>
+      <c r="BE12">
+        <v>0.035</v>
+      </c>
+      <c r="BF12">
         <v>12573.1126957955</v>
       </c>
-      <c r="AO12">
-        <v>24498.67251722605</v>
-      </c>
-      <c r="AP12">
-        <v>51202.22556100244</v>
-      </c>
-      <c r="AQ12">
-        <v>17067.40852033415</v>
-      </c>
-      <c r="AR12">
+      <c r="BG12">
         <v>29640.52121612964</v>
       </c>
-      <c r="AT12">
+      <c r="BI12">
         <v>0.187262022</v>
       </c>
-      <c r="AU12">
+      <c r="BJ12">
         <v>0.4301114948229354</v>
       </c>
-      <c r="AV12">
+      <c r="BK12">
         <v>1668218.967800047</v>
       </c>
-      <c r="AW12">
+      <c r="BL12">
         <v>276750.669470299</v>
       </c>
-      <c r="AX12">
+      <c r="BM12">
         <v>16443809.00009715</v>
       </c>
-      <c r="AY12">
+      <c r="BN12">
         <v>29640.52121612964</v>
       </c>
-      <c r="AZ12">
+      <c r="BO12">
         <v>15189.56158283491</v>
       </c>
-      <c r="BA12">
+      <c r="BP12">
         <v>34784889.84809346</v>
       </c>
-      <c r="BB12">
+      <c r="BQ12">
         <v>16351281.12792701</v>
       </c>
     </row>
-    <row r="13" spans="1:54">
+    <row r="13" spans="1:69">
       <c r="B13">
         <v>0.194282859</v>
       </c>
@@ -2248,112 +2827,157 @@
         <v>49.14141537250001</v>
       </c>
       <c r="O13">
+        <v>2.3625</v>
+      </c>
+      <c r="P13">
         <v>366980.5824649275</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>769191.3008464881</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>256397.1002821627</v>
       </c>
-      <c r="R13">
+      <c r="S13">
+        <v>26.3884677065385</v>
+      </c>
+      <c r="T13">
         <v>20914.18008081709</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>1775526.746444368</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>2031923.84672653</v>
       </c>
-      <c r="V13">
+      <c r="X13">
         <v>0.194282859</v>
       </c>
-      <c r="W13">
+      <c r="Y13">
+        <v>113.565</v>
+      </c>
+      <c r="Z13">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA13">
+        <v>1333.182423280232</v>
+      </c>
+      <c r="AB13">
+        <v>3.7935</v>
+      </c>
+      <c r="AC13">
         <v>425652.9602018634</v>
       </c>
-      <c r="X13">
+      <c r="AD13">
         <v>889614.6868218944</v>
       </c>
-      <c r="Y13">
+      <c r="AE13">
         <v>296538.2289406314</v>
       </c>
-      <c r="Z13">
+      <c r="AF13">
         <v>296538.2289406314</v>
       </c>
-      <c r="AB13">
+      <c r="AH13">
         <v>0.194282859</v>
       </c>
-      <c r="AC13">
+      <c r="AI13">
+        <v>-5.93460115</v>
+      </c>
+      <c r="AJ13">
+        <v>20</v>
+      </c>
+      <c r="AK13">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL13">
         <v>2080322.961014759</v>
       </c>
-      <c r="AD13">
+      <c r="AM13">
         <v>16892.22244343984</v>
       </c>
-      <c r="AF13">
+      <c r="AO13">
         <v>0.194282859</v>
       </c>
-      <c r="AG13">
+      <c r="AP13">
+        <v>279.9904226476538</v>
+      </c>
+      <c r="AQ13">
+        <v>1.75</v>
+      </c>
+      <c r="AR13">
+        <v>12886417.39439572</v>
+      </c>
+      <c r="AS13">
+        <v>26932612.35428706</v>
+      </c>
+      <c r="AT13">
+        <v>8977537.451429019</v>
+      </c>
+      <c r="AU13">
+        <v>3.8</v>
+      </c>
+      <c r="AV13">
         <v>8671303.389397835</v>
       </c>
-      <c r="AH13">
-        <v>12886417.39439572</v>
-      </c>
-      <c r="AI13">
-        <v>26932612.35428706</v>
-      </c>
-      <c r="AJ13">
-        <v>8977537.451429019</v>
-      </c>
-      <c r="AK13">
+      <c r="AW13">
         <v>17648840.84082685</v>
       </c>
-      <c r="AM13">
+      <c r="AY13">
         <v>0.194282859</v>
       </c>
-      <c r="AN13">
+      <c r="AZ13">
+        <v>506625</v>
+      </c>
+      <c r="BA13">
+        <v>35519.83133773954</v>
+      </c>
+      <c r="BB13">
+        <v>25732.55694432907</v>
+      </c>
+      <c r="BC13">
+        <v>53781.04401364776</v>
+      </c>
+      <c r="BD13">
+        <v>17927.01467121592</v>
+      </c>
+      <c r="BE13">
+        <v>0.035</v>
+      </c>
+      <c r="BF13">
         <v>13587.27623587261</v>
       </c>
-      <c r="AO13">
-        <v>25732.55694432907</v>
-      </c>
-      <c r="AP13">
-        <v>53781.04401364776</v>
-      </c>
-      <c r="AQ13">
-        <v>17927.01467121592</v>
-      </c>
-      <c r="AR13">
+      <c r="BG13">
         <v>31514.29090708853</v>
       </c>
-      <c r="AT13">
+      <c r="BI13">
         <v>0.194282859</v>
       </c>
-      <c r="AU13">
+      <c r="BJ13">
         <v>0.3838839405521625</v>
       </c>
-      <c r="AV13">
+      <c r="BK13">
         <v>2031923.84672653</v>
       </c>
-      <c r="AW13">
+      <c r="BL13">
         <v>296538.2289406314</v>
       </c>
-      <c r="AX13">
+      <c r="BM13">
         <v>17648840.84082685</v>
       </c>
-      <c r="AY13">
+      <c r="BN13">
         <v>31514.29090708853</v>
       </c>
-      <c r="AZ13">
+      <c r="BO13">
         <v>16892.22244343984</v>
       </c>
-      <c r="BA13">
+      <c r="BP13">
         <v>27850113.59468234</v>
       </c>
-      <c r="BB13">
+      <c r="BQ13">
         <v>7824404.164837799</v>
       </c>
     </row>
-    <row r="14" spans="1:54">
+    <row r="14" spans="1:69">
       <c r="B14">
         <v>0.201538265</v>
       </c>
@@ -2391,112 +3015,157 @@
         <v>52.6597602877</v>
       </c>
       <c r="O14">
+        <v>2.3625</v>
+      </c>
+      <c r="P14">
         <v>417581.6431578198</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>875251.1240587904</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>291750.3746862634</v>
       </c>
-      <c r="R14">
+      <c r="S14">
+        <v>32.47190918291142</v>
+      </c>
+      <c r="T14">
         <v>25735.61162291645</v>
       </c>
-      <c r="S14">
+      <c r="U14">
         <v>2184846.195070511</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>2476596.569756775</v>
       </c>
-      <c r="V14">
+      <c r="X14">
         <v>0.201538265</v>
       </c>
-      <c r="W14">
+      <c r="Y14">
+        <v>113.565</v>
+      </c>
+      <c r="Z14">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA14">
+        <v>1487.334552836142</v>
+      </c>
+      <c r="AB14">
+        <v>3.7935</v>
+      </c>
+      <c r="AC14">
         <v>457028.2706206444</v>
       </c>
-      <c r="X14">
+      <c r="AD14">
         <v>955189.0855971467</v>
       </c>
-      <c r="Y14">
+      <c r="AE14">
         <v>318396.3618657155</v>
       </c>
-      <c r="Z14">
+      <c r="AF14">
         <v>318396.3618657155</v>
       </c>
-      <c r="AB14">
+      <c r="AH14">
         <v>0.201538265</v>
       </c>
-      <c r="AC14">
+      <c r="AI14">
+        <v>-6.62080237</v>
+      </c>
+      <c r="AJ14">
+        <v>20</v>
+      </c>
+      <c r="AK14">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL14">
         <v>2320864.847109722</v>
       </c>
-      <c r="AD14">
+      <c r="AM14">
         <v>18845.42255853095</v>
       </c>
-      <c r="AF14">
+      <c r="AO14">
         <v>0.201538265</v>
       </c>
-      <c r="AG14">
+      <c r="AP14">
+        <v>304.0627356444955</v>
+      </c>
+      <c r="AQ14">
+        <v>1.75</v>
+      </c>
+      <c r="AR14">
+        <v>13822264.94265524</v>
+      </c>
+      <c r="AS14">
+        <v>28888533.73014945</v>
+      </c>
+      <c r="AT14">
+        <v>9629511.243383151</v>
+      </c>
+      <c r="AU14">
+        <v>3.8</v>
+      </c>
+      <c r="AV14">
         <v>9416822.922910025</v>
       </c>
-      <c r="AH14">
-        <v>13822264.94265524</v>
-      </c>
-      <c r="AI14">
-        <v>28888533.73014945</v>
-      </c>
-      <c r="AJ14">
-        <v>9629511.243383151</v>
-      </c>
-      <c r="AK14">
+      <c r="AW14">
         <v>19046334.16629317</v>
       </c>
-      <c r="AM14">
+      <c r="AY14">
         <v>0.201538265</v>
       </c>
-      <c r="AN14">
+      <c r="AZ14">
+        <v>506625</v>
+      </c>
+      <c r="BA14">
+        <v>38609.34863764978</v>
+      </c>
+      <c r="BB14">
+        <v>27124.83355826376</v>
+      </c>
+      <c r="BC14">
+        <v>56690.90213677125</v>
+      </c>
+      <c r="BD14">
+        <v>18896.96737892375</v>
+      </c>
+      <c r="BE14">
+        <v>0.035</v>
+      </c>
+      <c r="BF14">
         <v>14769.09842951536</v>
       </c>
-      <c r="AO14">
-        <v>27124.83355826376</v>
-      </c>
-      <c r="AP14">
-        <v>56690.90213677125</v>
-      </c>
-      <c r="AQ14">
-        <v>18896.96737892375</v>
-      </c>
-      <c r="AR14">
+      <c r="BG14">
         <v>33666.0658084391</v>
       </c>
-      <c r="AT14">
+      <c r="BI14">
         <v>0.201538265</v>
       </c>
-      <c r="AU14">
+      <c r="BJ14">
         <v>0.3406808972924757</v>
       </c>
-      <c r="AV14">
+      <c r="BK14">
         <v>2476596.569756775</v>
       </c>
-      <c r="AW14">
+      <c r="BL14">
         <v>318396.3618657155</v>
       </c>
-      <c r="AX14">
+      <c r="BM14">
         <v>19046334.16629317</v>
       </c>
-      <c r="AY14">
+      <c r="BN14">
         <v>33666.0658084391</v>
       </c>
-      <c r="AZ14">
+      <c r="BO14">
         <v>18845.42255853095</v>
       </c>
-      <c r="BA14">
+      <c r="BP14">
         <v>19839330.91365024</v>
       </c>
-      <c r="BB14">
+      <c r="BQ14">
         <v>-2054507.67263239</v>
       </c>
     </row>
-    <row r="15" spans="1:54">
+    <row r="15" spans="1:69">
       <c r="B15">
         <v>0.209196218</v>
       </c>
@@ -2534,112 +3203,157 @@
         <v>56.4300059465</v>
       </c>
       <c r="O15">
+        <v>2.3625</v>
+      </c>
+      <c r="P15">
         <v>475159.8258586634</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>995934.9949997584</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>331978.3316665861</v>
       </c>
-      <c r="R15">
+      <c r="S15">
+        <v>39.95779167571131</v>
+      </c>
+      <c r="T15">
         <v>31668.547792585</v>
       </c>
-      <c r="S15">
+      <c r="U15">
         <v>2688527.755307998</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>3020506.086974584</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>0.209196218</v>
       </c>
-      <c r="W15">
+      <c r="Y15">
+        <v>113.565</v>
+      </c>
+      <c r="Z15">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA15">
+        <v>1663.327012527382</v>
+      </c>
+      <c r="AB15">
+        <v>3.7935</v>
+      </c>
+      <c r="AC15">
         <v>491487.9764040935</v>
       </c>
-      <c r="X15">
+      <c r="AD15">
         <v>1027209.870684555</v>
       </c>
-      <c r="Y15">
+      <c r="AE15">
         <v>342403.2902281851</v>
       </c>
-      <c r="Z15">
+      <c r="AF15">
         <v>342403.2902281851</v>
       </c>
-      <c r="AB15">
+      <c r="AH15">
         <v>0.209196218</v>
       </c>
-      <c r="AC15">
+      <c r="AI15">
+        <v>-7.40422483</v>
+      </c>
+      <c r="AJ15">
+        <v>20</v>
+      </c>
+      <c r="AK15">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL15">
         <v>2595486.795665215</v>
       </c>
-      <c r="AD15">
+      <c r="AM15">
         <v>21075.35278080154</v>
       </c>
-      <c r="AF15">
+      <c r="AO15">
         <v>0.209196218</v>
       </c>
-      <c r="AG15">
+      <c r="AP15">
+        <v>331.6994962998657</v>
+      </c>
+      <c r="AQ15">
+        <v>1.75</v>
+      </c>
+      <c r="AR15">
+        <v>14883106.33525714</v>
+      </c>
+      <c r="AS15">
+        <v>31105692.24068742</v>
+      </c>
+      <c r="AT15">
+        <v>10368564.08022914</v>
+      </c>
+      <c r="AU15">
+        <v>3.8</v>
+      </c>
+      <c r="AV15">
         <v>10272733.40040684</v>
       </c>
-      <c r="AH15">
-        <v>14883106.33525714</v>
-      </c>
-      <c r="AI15">
-        <v>31105692.24068742</v>
-      </c>
-      <c r="AJ15">
-        <v>10368564.08022914</v>
-      </c>
-      <c r="AK15">
+      <c r="AW15">
         <v>20641297.48063598</v>
       </c>
-      <c r="AM15">
+      <c r="AY15">
         <v>0.209196218</v>
       </c>
-      <c r="AN15">
+      <c r="AZ15">
+        <v>506625</v>
+      </c>
+      <c r="BA15">
+        <v>42154.63264302122</v>
+      </c>
+      <c r="BB15">
+        <v>28668.67333897835</v>
+      </c>
+      <c r="BC15">
+        <v>59917.52727846476</v>
+      </c>
+      <c r="BD15">
+        <v>19972.50909282159</v>
+      </c>
+      <c r="BE15">
+        <v>0.035</v>
+      </c>
+      <c r="BF15">
         <v>16125.26345906102</v>
       </c>
-      <c r="AO15">
-        <v>28668.67333897835</v>
-      </c>
-      <c r="AP15">
-        <v>59917.52727846476</v>
-      </c>
-      <c r="AQ15">
-        <v>19972.50909282159</v>
-      </c>
-      <c r="AR15">
+      <c r="BG15">
         <v>36097.7725518826</v>
       </c>
-      <c r="AT15">
+      <c r="BI15">
         <v>0.209196218</v>
       </c>
-      <c r="AU15">
+      <c r="BJ15">
         <v>0.3008070837153629</v>
       </c>
-      <c r="AV15">
+      <c r="BK15">
         <v>3020506.086974584</v>
       </c>
-      <c r="AW15">
+      <c r="BL15">
         <v>342403.2902281851</v>
       </c>
-      <c r="AX15">
+      <c r="BM15">
         <v>20641297.48063598</v>
       </c>
-      <c r="AY15">
+      <c r="BN15">
         <v>36097.7725518826</v>
       </c>
-      <c r="AZ15">
+      <c r="BO15">
         <v>21075.35278080154</v>
       </c>
-      <c r="BA15">
+      <c r="BP15">
         <v>10621960.65455655</v>
       </c>
-      <c r="BB15">
+      <c r="BQ15">
         <v>-13439419.32861488</v>
       </c>
     </row>
-    <row r="16" spans="1:54">
+    <row r="16" spans="1:69">
       <c r="B16">
         <v>0.217186813</v>
       </c>
@@ -2677,112 +3391,157 @@
         <v>60.4701873497</v>
       </c>
       <c r="O16">
+        <v>2.3625</v>
+      </c>
+      <c r="P16">
         <v>540677.1674764997</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1133259.343030743</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>377753.1143435811</v>
       </c>
-      <c r="R16">
+      <c r="S16">
+        <v>49.16942534856946</v>
+      </c>
+      <c r="T16">
         <v>38969.22806000873</v>
       </c>
-      <c r="S16">
+      <c r="U16">
         <v>3308325.090511158</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>3686078.204854739</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>0.217186813</v>
       </c>
-      <c r="W16">
+      <c r="Y16">
+        <v>113.565</v>
+      </c>
+      <c r="Z16">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA16">
+        <v>1864.174273113771</v>
+      </c>
+      <c r="AB16">
+        <v>3.7935</v>
+      </c>
+      <c r="AC16">
         <v>529289.9686117944</v>
       </c>
-      <c r="X16">
+      <c r="AD16">
         <v>1106216.03439865</v>
       </c>
-      <c r="Y16">
+      <c r="AE16">
         <v>368738.6781328834</v>
       </c>
-      <c r="Z16">
+      <c r="AF16">
         <v>368738.6781328834</v>
       </c>
-      <c r="AB16">
+      <c r="AH16">
         <v>0.217186813</v>
       </c>
-      <c r="AC16">
+      <c r="AI16">
+        <v>-8.298287309999999</v>
+      </c>
+      <c r="AJ16">
+        <v>20</v>
+      </c>
+      <c r="AK16">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL16">
         <v>2908892.643626168</v>
       </c>
-      <c r="AD16">
+      <c r="AM16">
         <v>23620.20826624448</v>
       </c>
-      <c r="AF16">
+      <c r="AO16">
         <v>0.217186813</v>
       </c>
-      <c r="AG16">
+      <c r="AP16">
+        <v>363.5281261402448</v>
+      </c>
+      <c r="AQ16">
+        <v>1.75</v>
+      </c>
+      <c r="AR16">
+        <v>16088583.52777801</v>
+      </c>
+      <c r="AS16">
+        <v>33625139.57305604</v>
+      </c>
+      <c r="AT16">
+        <v>11208379.85768535</v>
+      </c>
+      <c r="AU16">
+        <v>3.8</v>
+      </c>
+      <c r="AV16">
         <v>11258466.06656338</v>
       </c>
-      <c r="AH16">
-        <v>16088583.52777801</v>
-      </c>
-      <c r="AI16">
-        <v>33625139.57305604</v>
-      </c>
-      <c r="AJ16">
-        <v>11208379.85768535</v>
-      </c>
-      <c r="AK16">
+      <c r="AW16">
         <v>22466845.92424873</v>
       </c>
-      <c r="AM16">
+      <c r="AY16">
         <v>0.217186813</v>
       </c>
-      <c r="AN16">
+      <c r="AZ16">
+        <v>506625</v>
+      </c>
+      <c r="BA16">
+        <v>46235.63550161242</v>
+      </c>
+      <c r="BB16">
+        <v>30382.8347505692</v>
+      </c>
+      <c r="BC16">
+        <v>63500.12462868961</v>
+      </c>
+      <c r="BD16">
+        <v>21166.7082095632</v>
+      </c>
+      <c r="BE16">
+        <v>0.035</v>
+      </c>
+      <c r="BF16">
         <v>17686.35513857442</v>
       </c>
-      <c r="AO16">
-        <v>30382.8347505692</v>
-      </c>
-      <c r="AP16">
-        <v>63500.12462868961</v>
-      </c>
-      <c r="AQ16">
-        <v>21166.7082095632</v>
-      </c>
-      <c r="AR16">
+      <c r="BG16">
         <v>38853.06334813762</v>
       </c>
-      <c r="AT16">
+      <c r="BI16">
         <v>0.217186813</v>
       </c>
-      <c r="AU16">
+      <c r="BJ16">
         <v>0.2643384827669432</v>
       </c>
-      <c r="AV16">
+      <c r="BK16">
         <v>3686078.204854739</v>
       </c>
-      <c r="AW16">
+      <c r="BL16">
         <v>368738.6781328834</v>
       </c>
-      <c r="AX16">
+      <c r="BM16">
         <v>22466845.92424873</v>
       </c>
-      <c r="AY16">
+      <c r="BN16">
         <v>38853.06334813762</v>
       </c>
-      <c r="AZ16">
+      <c r="BO16">
         <v>23620.20826624448</v>
       </c>
-      <c r="BA16">
+      <c r="BP16">
         <v>19193.62716233041</v>
       </c>
-      <c r="BB16">
+      <c r="BQ16">
         <v>-26564942.4516884</v>
       </c>
     </row>
-    <row r="17" spans="2:54">
+    <row r="17" spans="2:69">
       <c r="B17">
         <v>0.225572671</v>
       </c>
@@ -2820,112 +3579,157 @@
         <v>64.79963057160001</v>
       </c>
       <c r="O17">
+        <v>2.3625</v>
+      </c>
+      <c r="P17">
         <v>615228.3517907105</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1289518.625353329</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>429839.541784443</v>
       </c>
-      <c r="R17">
+      <c r="S17">
+        <v>60.50465375591121</v>
+      </c>
+      <c r="T17">
         <v>47952.96333424743</v>
       </c>
-      <c r="S17">
+      <c r="U17">
         <v>4071006.783063715</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>4500846.324848158</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>0.225572671</v>
       </c>
-      <c r="W17">
+      <c r="Y17">
+        <v>113.565</v>
+      </c>
+      <c r="Z17">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA17">
+        <v>2092.599114191097</v>
+      </c>
+      <c r="AB17">
+        <v>3.7935</v>
+      </c>
+      <c r="AC17">
         <v>570588.9483955157</v>
       </c>
-      <c r="X17">
+      <c r="AD17">
         <v>1192530.902146628</v>
       </c>
-      <c r="Y17">
+      <c r="AE17">
         <v>397510.3007155425</v>
       </c>
-      <c r="Z17">
+      <c r="AF17">
         <v>397510.3007155425</v>
       </c>
-      <c r="AB17">
+      <c r="AH17">
         <v>0.225572671</v>
       </c>
-      <c r="AC17">
+      <c r="AI17">
+        <v>-9.31511014</v>
+      </c>
+      <c r="AJ17">
+        <v>20</v>
+      </c>
+      <c r="AK17">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL17">
         <v>3265331.067551761</v>
       </c>
-      <c r="AD17">
+      <c r="AM17">
         <v>26514.4882685203</v>
       </c>
-      <c r="AF17">
+      <c r="AO17">
         <v>0.225572671</v>
       </c>
-      <c r="AG17">
+      <c r="AP17">
+        <v>399.9707674764592</v>
+      </c>
+      <c r="AQ17">
+        <v>1.75</v>
+      </c>
+      <c r="AR17">
+        <v>17449561.11043955</v>
+      </c>
+      <c r="AS17">
+        <v>36469582.72081865</v>
+      </c>
+      <c r="AT17">
+        <v>12156527.57360622</v>
+      </c>
+      <c r="AU17">
+        <v>3.8</v>
+      </c>
+      <c r="AV17">
         <v>12387094.66874594</v>
       </c>
-      <c r="AH17">
-        <v>17449561.11043955</v>
-      </c>
-      <c r="AI17">
-        <v>36469582.72081865</v>
-      </c>
-      <c r="AJ17">
-        <v>12156527.57360622</v>
-      </c>
-      <c r="AK17">
+      <c r="AW17">
         <v>24543622.24235216</v>
       </c>
-      <c r="AM17">
+      <c r="AY17">
         <v>0.225572671</v>
       </c>
-      <c r="AN17">
+      <c r="AZ17">
+        <v>506625</v>
+      </c>
+      <c r="BA17">
+        <v>50906.36816444832</v>
+      </c>
+      <c r="BB17">
+        <v>32272.02674617003</v>
+      </c>
+      <c r="BC17">
+        <v>67448.53589949536</v>
+      </c>
+      <c r="BD17">
+        <v>22482.84529983178</v>
+      </c>
+      <c r="BE17">
+        <v>0.035</v>
+      </c>
+      <c r="BF17">
         <v>19473.03408731244</v>
       </c>
-      <c r="AO17">
-        <v>32272.02674617003</v>
-      </c>
-      <c r="AP17">
-        <v>67448.53589949536</v>
-      </c>
-      <c r="AQ17">
-        <v>22482.84529983178</v>
-      </c>
-      <c r="AR17">
+      <c r="BG17">
         <v>41955.87938714422</v>
       </c>
-      <c r="AT17">
+      <c r="BI17">
         <v>0.225572671</v>
       </c>
-      <c r="AU17">
+      <c r="BJ17">
         <v>0.2313195001058419</v>
       </c>
-      <c r="AV17">
+      <c r="BK17">
         <v>4500846.324848158</v>
       </c>
-      <c r="AW17">
+      <c r="BL17">
         <v>397510.3007155425</v>
       </c>
-      <c r="AX17">
+      <c r="BM17">
         <v>24543622.24235216</v>
       </c>
-      <c r="AY17">
+      <c r="BN17">
         <v>41955.87938714422</v>
       </c>
-      <c r="AZ17">
+      <c r="BO17">
         <v>26514.4882685203</v>
       </c>
-      <c r="BA17">
+      <c r="BP17">
         <v>-12144069.64528665</v>
       </c>
-      <c r="BB17">
+      <c r="BQ17">
         <v>-41654518.88085817</v>
       </c>
     </row>
-    <row r="18" spans="2:54">
+    <row r="18" spans="2:69">
       <c r="B18">
         <v>0.234370371</v>
       </c>
@@ -2963,112 +3767,157 @@
         <v>69.43904626849999</v>
       </c>
       <c r="O18">
+        <v>2.3625</v>
+      </c>
+      <c r="P18">
         <v>700059.0188479347</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>1467323.703505271</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>489107.9011684237</v>
       </c>
-      <c r="R18">
+      <c r="S18">
+        <v>74.45303945425508</v>
+      </c>
+      <c r="T18">
         <v>59007.75641946987</v>
       </c>
-      <c r="S18">
+      <c r="U18">
         <v>5009512.654361244</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>5498620.555529668</v>
       </c>
-      <c r="V18">
+      <c r="X18">
         <v>0.234370371</v>
       </c>
-      <c r="W18">
+      <c r="Y18">
+        <v>113.565</v>
+      </c>
+      <c r="Z18">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA18">
+        <v>2351.665316242698</v>
+      </c>
+      <c r="AB18">
+        <v>3.7935</v>
+      </c>
+      <c r="AC18">
         <v>615561.5940147121</v>
       </c>
-      <c r="X18">
+      <c r="AD18">
         <v>1286523.731490748</v>
       </c>
-      <c r="Y18">
+      <c r="AE18">
         <v>428841.2438302494</v>
       </c>
-      <c r="Z18">
+      <c r="AF18">
         <v>428841.2438302494</v>
       </c>
-      <c r="AB18">
+      <c r="AH18">
         <v>0.234370371</v>
       </c>
-      <c r="AC18">
+      <c r="AI18">
+        <v>-10.4683316</v>
+      </c>
+      <c r="AJ18">
+        <v>20</v>
+      </c>
+      <c r="AK18">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL18">
         <v>3669582.848208152</v>
       </c>
-      <c r="AD18">
+      <c r="AM18">
         <v>29797.01272745019</v>
       </c>
-      <c r="AF18">
+      <c r="AO18">
         <v>0.234370371</v>
       </c>
-      <c r="AG18">
+      <c r="AP18">
+        <v>441.5847789666601</v>
+      </c>
+      <c r="AQ18">
+        <v>1.75</v>
+      </c>
+      <c r="AR18">
+        <v>18981147.99652678</v>
+      </c>
+      <c r="AS18">
+        <v>39670599.31274097</v>
+      </c>
+      <c r="AT18">
+        <v>13223533.10424699</v>
+      </c>
+      <c r="AU18">
+        <v>3.8</v>
+      </c>
+      <c r="AV18">
         <v>13675880.60459746</v>
       </c>
-      <c r="AH18">
-        <v>18981147.99652678</v>
-      </c>
-      <c r="AI18">
-        <v>39670599.31274097</v>
-      </c>
-      <c r="AJ18">
-        <v>13223533.10424699</v>
-      </c>
-      <c r="AK18">
+      <c r="AW18">
         <v>26899413.70884445</v>
       </c>
-      <c r="AM18">
+      <c r="AY18">
         <v>0.234370371</v>
       </c>
-      <c r="AN18">
+      <c r="AZ18">
+        <v>506625</v>
+      </c>
+      <c r="BA18">
+        <v>56237.9532757422</v>
+      </c>
+      <c r="BB18">
+        <v>34345.64717959356</v>
+      </c>
+      <c r="BC18">
+        <v>71782.40260535054</v>
+      </c>
+      <c r="BD18">
+        <v>23927.46753511684</v>
+      </c>
+      <c r="BE18">
+        <v>0.035</v>
+      </c>
+      <c r="BF18">
         <v>21512.50660038281</v>
       </c>
-      <c r="AO18">
-        <v>34345.64717959356</v>
-      </c>
-      <c r="AP18">
-        <v>71782.40260535054</v>
-      </c>
-      <c r="AQ18">
-        <v>23927.46753511684</v>
-      </c>
-      <c r="AR18">
+      <c r="BG18">
         <v>45439.97413549965</v>
       </c>
-      <c r="AT18">
+      <c r="BI18">
         <v>0.234370371</v>
       </c>
-      <c r="AU18">
+      <c r="BJ18">
         <v>0.2016469977176076</v>
       </c>
-      <c r="AV18">
+      <c r="BK18">
         <v>5498620.555529668</v>
       </c>
-      <c r="AW18">
+      <c r="BL18">
         <v>428841.2438302494</v>
       </c>
-      <c r="AX18">
+      <c r="BM18">
         <v>26899413.70884445</v>
       </c>
-      <c r="AY18">
+      <c r="BN18">
         <v>45439.97413549965</v>
       </c>
-      <c r="AZ18">
+      <c r="BO18">
         <v>29797.01272745019</v>
       </c>
-      <c r="BA18">
+      <c r="BP18">
         <v>-26080465.9323756</v>
       </c>
-      <c r="BB18">
+      <c r="BQ18">
         <v>-58982578.42744292</v>
       </c>
     </row>
-    <row r="19" spans="2:54">
+    <row r="19" spans="2:69">
       <c r="B19">
         <v>0.243557049</v>
       </c>
@@ -3106,112 +3955,157 @@
         <v>74.41062712439999</v>
       </c>
       <c r="O19">
+        <v>2.3625</v>
+      </c>
+      <c r="P19">
         <v>796586.5499281511</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>1669645.408649405</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>556548.4695498015</v>
       </c>
-      <c r="R19">
+      <c r="S19">
+        <v>91.61700373991421</v>
+      </c>
+      <c r="T19">
         <v>72611.05631406901</v>
       </c>
-      <c r="S19">
+      <c r="U19">
         <v>6164376.134996484</v>
       </c>
-      <c r="T19">
+      <c r="V19">
         <v>6720924.604546285</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>0.243557049</v>
       </c>
-      <c r="W19">
+      <c r="Y19">
+        <v>113.565</v>
+      </c>
+      <c r="Z19">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA19">
+        <v>2644.822764996135</v>
+      </c>
+      <c r="AB19">
+        <v>3.7935</v>
+      </c>
+      <c r="AC19">
         <v>664408.5381985294</v>
       </c>
-      <c r="X19">
+      <c r="AD19">
         <v>1388613.844834926</v>
       </c>
-      <c r="Y19">
+      <c r="AE19">
         <v>462871.2816116421</v>
       </c>
-      <c r="Z19">
+      <c r="AF19">
         <v>462871.2816116421</v>
       </c>
-      <c r="AB19">
+      <c r="AH19">
         <v>0.243557049</v>
       </c>
-      <c r="AC19">
+      <c r="AI19">
+        <v>-11.7733087</v>
+      </c>
+      <c r="AJ19">
+        <v>20</v>
+      </c>
+      <c r="AK19">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL19">
         <v>4127031.252256071</v>
       </c>
-      <c r="AD19">
+      <c r="AM19">
         <v>33511.4937683193</v>
       </c>
-      <c r="AF19">
+      <c r="AO19">
         <v>0.243557049</v>
       </c>
-      <c r="AG19">
+      <c r="AP19">
+        <v>489.12401529096</v>
+      </c>
+      <c r="AQ19">
+        <v>1.75</v>
+      </c>
+      <c r="AR19">
+        <v>20704589.91329223</v>
+      </c>
+      <c r="AS19">
+        <v>43272592.91878076</v>
+      </c>
+      <c r="AT19">
+        <v>14424197.63959359</v>
+      </c>
+      <c r="AU19">
+        <v>3.8</v>
+      </c>
+      <c r="AV19">
         <v>15148170.75356103</v>
       </c>
-      <c r="AH19">
-        <v>20704589.91329223</v>
-      </c>
-      <c r="AI19">
-        <v>43272592.91878076</v>
-      </c>
-      <c r="AJ19">
-        <v>14424197.63959359</v>
-      </c>
-      <c r="AK19">
+      <c r="AW19">
         <v>29572368.39315461</v>
       </c>
-      <c r="AM19">
+      <c r="AY19">
         <v>0.243557049</v>
       </c>
-      <c r="AN19">
+      <c r="AZ19">
+        <v>506625</v>
+      </c>
+      <c r="BA19">
+        <v>62326.45771103288</v>
+      </c>
+      <c r="BB19">
+        <v>36619.67619322596</v>
+      </c>
+      <c r="BC19">
+        <v>76535.12324384226</v>
+      </c>
+      <c r="BD19">
+        <v>25511.70774794742</v>
+      </c>
+      <c r="BE19">
+        <v>0.035</v>
+      </c>
+      <c r="BF19">
         <v>23841.5208020278</v>
       </c>
-      <c r="AO19">
-        <v>36619.67619322596</v>
-      </c>
-      <c r="AP19">
-        <v>76535.12324384226</v>
-      </c>
-      <c r="AQ19">
-        <v>25511.70774794742</v>
-      </c>
-      <c r="AR19">
+      <c r="BG19">
         <v>49353.22854997522</v>
       </c>
-      <c r="AT19">
+      <c r="BI19">
         <v>0.243557049</v>
       </c>
-      <c r="AU19">
+      <c r="BJ19">
         <v>0.1751933011807641</v>
       </c>
-      <c r="AV19">
+      <c r="BK19">
         <v>6720924.604546285</v>
       </c>
-      <c r="AW19">
+      <c r="BL19">
         <v>462871.2816116421</v>
       </c>
-      <c r="AX19">
+      <c r="BM19">
         <v>29572368.39315461</v>
       </c>
-      <c r="AY19">
+      <c r="BN19">
         <v>49353.22854997522</v>
       </c>
-      <c r="AZ19">
+      <c r="BO19">
         <v>33511.4937683193</v>
       </c>
-      <c r="BA19">
+      <c r="BP19">
         <v>-42017315.23982998</v>
       </c>
-      <c r="BB19">
+      <c r="BQ19">
         <v>-78856344.24146082</v>
       </c>
     </row>
-    <row r="20" spans="2:54">
+    <row r="20" spans="2:69">
       <c r="B20">
         <v>0.253151848</v>
       </c>
@@ -3249,112 +4143,157 @@
         <v>79.73815513970001</v>
       </c>
       <c r="O20">
+        <v>2.3625</v>
+      </c>
+      <c r="P20">
         <v>906423.7695209815</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>1899864.220915977</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>633288.073638659</v>
       </c>
-      <c r="R20">
+      <c r="S20">
+        <v>112.7378479685156</v>
+      </c>
+      <c r="T20">
         <v>89350.38140744703</v>
       </c>
-      <c r="S20">
+      <c r="U20">
         <v>7585475.088236388</v>
       </c>
-      <c r="T20">
+      <c r="V20">
         <v>8218763.161875047</v>
       </c>
-      <c r="V20">
+      <c r="X20">
         <v>0.253151848</v>
       </c>
-      <c r="W20">
+      <c r="Y20">
+        <v>113.565</v>
+      </c>
+      <c r="Z20">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA20">
+        <v>2975.647900314478</v>
+      </c>
+      <c r="AB20">
+        <v>3.7935</v>
+      </c>
+      <c r="AC20">
         <v>717307.6015747224</v>
       </c>
-      <c r="X20">
+      <c r="AD20">
         <v>1499172.88729117</v>
       </c>
-      <c r="Y20">
+      <c r="AE20">
         <v>499724.2957637232</v>
       </c>
-      <c r="Z20">
+      <c r="AF20">
         <v>499724.2957637232</v>
       </c>
-      <c r="AB20">
+      <c r="AH20">
         <v>0.253151848</v>
       </c>
-      <c r="AC20">
+      <c r="AI20">
+        <v>-13.2459618</v>
+      </c>
+      <c r="AJ20">
+        <v>20</v>
+      </c>
+      <c r="AK20">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL20">
         <v>4643257.023812694</v>
       </c>
-      <c r="AD20">
+      <c r="AM20">
         <v>37703.24703335907</v>
       </c>
-      <c r="AF20">
+      <c r="AO20">
         <v>0.253151848</v>
       </c>
-      <c r="AG20">
+      <c r="AP20">
+        <v>543.3337188840736</v>
+      </c>
+      <c r="AQ20">
+        <v>1.75</v>
+      </c>
+      <c r="AR20">
+        <v>22639516.81318511</v>
+      </c>
+      <c r="AS20">
+        <v>47316590.13955688</v>
+      </c>
+      <c r="AT20">
+        <v>15772196.71318563</v>
+      </c>
+      <c r="AU20">
+        <v>3.8</v>
+      </c>
+      <c r="AV20">
         <v>16827045.27383976</v>
       </c>
-      <c r="AH20">
-        <v>22639516.81318511</v>
-      </c>
-      <c r="AI20">
-        <v>47316590.13955688</v>
-      </c>
-      <c r="AJ20">
-        <v>15772196.71318563</v>
-      </c>
-      <c r="AK20">
+      <c r="AW20">
         <v>32599241.98702539</v>
       </c>
-      <c r="AM20">
+      <c r="AY20">
         <v>0.253151848</v>
       </c>
-      <c r="AN20">
+      <c r="AZ20">
+        <v>506625</v>
+      </c>
+      <c r="BA20">
+        <v>69266.84972508923</v>
+      </c>
+      <c r="BB20">
+        <v>39106.03308792097</v>
+      </c>
+      <c r="BC20">
+        <v>81731.60915375481</v>
+      </c>
+      <c r="BD20">
+        <v>27243.86971791827</v>
+      </c>
+      <c r="BE20">
+        <v>0.035</v>
+      </c>
+      <c r="BF20">
         <v>26496.40456494797</v>
       </c>
-      <c r="AO20">
-        <v>39106.03308792097</v>
-      </c>
-      <c r="AP20">
-        <v>81731.60915375481</v>
-      </c>
-      <c r="AQ20">
-        <v>27243.86971791827</v>
-      </c>
-      <c r="AR20">
+      <c r="BG20">
         <v>53740.27428286624</v>
       </c>
-      <c r="AT20">
+      <c r="BI20">
         <v>0.253151848</v>
       </c>
-      <c r="AU20">
+      <c r="BJ20">
         <v>0.1517543180855173</v>
       </c>
-      <c r="AV20">
+      <c r="BK20">
         <v>8218763.161875047</v>
       </c>
-      <c r="AW20">
+      <c r="BL20">
         <v>499724.2957637232</v>
       </c>
-      <c r="AX20">
+      <c r="BM20">
         <v>32599241.98702539</v>
       </c>
-      <c r="AY20">
+      <c r="BN20">
         <v>53740.27428286624</v>
       </c>
-      <c r="AZ20">
+      <c r="BO20">
         <v>37703.24703335907</v>
       </c>
-      <c r="BA20">
+      <c r="BP20">
         <v>-60221529.18407043</v>
       </c>
-      <c r="BB20">
+      <c r="BQ20">
         <v>-101630702.1500508</v>
       </c>
     </row>
-    <row r="21" spans="2:54">
+    <row r="21" spans="2:69">
       <c r="B21">
         <v>0.263147299</v>
       </c>
@@ -3392,112 +4331,157 @@
         <v>85.4471141695</v>
       </c>
       <c r="O21">
+        <v>2.3625</v>
+      </c>
+      <c r="P21">
         <v>1031405.867796278</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>2161826.698900999</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>720608.8996336663</v>
       </c>
-      <c r="R21">
+      <c r="S21">
+        <v>138.7277649703126</v>
+      </c>
+      <c r="T21">
         <v>109948.6901272213</v>
       </c>
-      <c r="S21">
+      <c r="U21">
         <v>9334185.672258889</v>
       </c>
-      <c r="T21">
+      <c r="V21">
         <v>10054794.57189256</v>
       </c>
-      <c r="V21">
+      <c r="X21">
         <v>0.263147299</v>
       </c>
-      <c r="W21">
+      <c r="Y21">
+        <v>113.565</v>
+      </c>
+      <c r="Z21">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA21">
+        <v>3347.785306076894</v>
+      </c>
+      <c r="AB21">
+        <v>3.7935</v>
+      </c>
+      <c r="AC21">
         <v>774408.0712767912</v>
       </c>
-      <c r="X21">
+      <c r="AD21">
         <v>1618512.868968493</v>
       </c>
-      <c r="Y21">
+      <c r="AE21">
         <v>539504.2896561644</v>
       </c>
-      <c r="Z21">
+      <c r="AF21">
         <v>539504.2896561644</v>
       </c>
-      <c r="AB21">
+      <c r="AH21">
         <v>0.263147299</v>
       </c>
-      <c r="AC21">
+      <c r="AI21">
+        <v>-14.9025146</v>
+      </c>
+      <c r="AJ21">
+        <v>20</v>
+      </c>
+      <c r="AK21">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL21">
         <v>5223947.240201252</v>
       </c>
-      <c r="AD21">
+      <c r="AM21">
         <v>42418.45159043416</v>
       </c>
-      <c r="AF21">
+      <c r="AO21">
         <v>0.263147299</v>
       </c>
-      <c r="AG21">
+      <c r="AP21">
+        <v>605.1172644710256</v>
+      </c>
+      <c r="AQ21">
+        <v>1.75</v>
+      </c>
+      <c r="AR21">
+        <v>24809848.18318251</v>
+      </c>
+      <c r="AS21">
+        <v>51852582.70285144</v>
+      </c>
+      <c r="AT21">
+        <v>17284194.23428381</v>
+      </c>
+      <c r="AU21">
+        <v>3.8</v>
+      </c>
+      <c r="AV21">
         <v>18740481.68066766</v>
       </c>
-      <c r="AH21">
-        <v>24809848.18318251</v>
-      </c>
-      <c r="AI21">
-        <v>51852582.70285144</v>
-      </c>
-      <c r="AJ21">
-        <v>17284194.23428381</v>
-      </c>
-      <c r="AK21">
+      <c r="AW21">
         <v>36024675.91495147</v>
       </c>
-      <c r="AM21">
+      <c r="AY21">
         <v>0.263147299</v>
       </c>
-      <c r="AN21">
+      <c r="AZ21">
+        <v>506625</v>
+      </c>
+      <c r="BA21">
+        <v>77174.16617625311</v>
+      </c>
+      <c r="BB21">
+        <v>41820.23690284031</v>
+      </c>
+      <c r="BC21">
+        <v>87404.29512693625</v>
+      </c>
+      <c r="BD21">
+        <v>29134.76504231208</v>
+      </c>
+      <c r="BE21">
+        <v>0.035</v>
+      </c>
+      <c r="BF21">
         <v>29521.16253423119</v>
       </c>
-      <c r="AO21">
-        <v>41820.23690284031</v>
-      </c>
-      <c r="AP21">
-        <v>87404.29512693625</v>
-      </c>
-      <c r="AQ21">
-        <v>29134.76504231208</v>
-      </c>
-      <c r="AR21">
+      <c r="BG21">
         <v>58655.92757654328</v>
       </c>
-      <c r="AT21">
+      <c r="BI21">
         <v>0.263147299</v>
       </c>
-      <c r="AU21">
+      <c r="BJ21">
         <v>0.1311070842351198</v>
       </c>
-      <c r="AV21">
+      <c r="BK21">
         <v>10054794.57189256</v>
       </c>
-      <c r="AW21">
+      <c r="BL21">
         <v>539504.2896561644</v>
       </c>
-      <c r="AX21">
+      <c r="BM21">
         <v>36024675.91495147</v>
       </c>
-      <c r="AY21">
+      <c r="BN21">
         <v>58655.92757654328</v>
       </c>
-      <c r="AZ21">
+      <c r="BO21">
         <v>42418.45159043416</v>
       </c>
-      <c r="BA21">
+      <c r="BP21">
         <v>-80961914.76076363</v>
       </c>
-      <c r="BB21">
+      <c r="BQ21">
         <v>-127681963.9164308</v>
       </c>
     </row>
-    <row r="22" spans="2:54">
+    <row r="22" spans="2:69">
       <c r="B22">
         <v>0.273508663</v>
       </c>
@@ -3535,112 +4519,157 @@
         <v>91.5648139454</v>
       </c>
       <c r="O22">
+        <v>2.3625</v>
+      </c>
+      <c r="P22">
         <v>1173621.108900684</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>2459909.844255835</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>819969.9480852783</v>
       </c>
-      <c r="R22">
+      <c r="S22">
+        <v>170.7092451841787</v>
+      </c>
+      <c r="T22">
         <v>135295.6122707209</v>
       </c>
-      <c r="S22">
+      <c r="U22">
         <v>11486033.75006641</v>
       </c>
-      <c r="T22">
+      <c r="V22">
         <v>12306003.69815169</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>0.273508663</v>
       </c>
-      <c r="W22">
+      <c r="Y22">
+        <v>113.565</v>
+      </c>
+      <c r="Z22">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA22">
+        <v>3765.619616377553</v>
+      </c>
+      <c r="AB22">
+        <v>3.7935</v>
+      </c>
+      <c r="AC22">
         <v>835932.3308644779</v>
       </c>
-      <c r="X22">
+      <c r="AD22">
         <v>1747098.571506759</v>
       </c>
-      <c r="Y22">
+      <c r="AE22">
         <v>582366.1905022529</v>
       </c>
-      <c r="Z22">
+      <c r="AF22">
         <v>582366.1905022529</v>
       </c>
-      <c r="AB22">
+      <c r="AH22">
         <v>0.273508663</v>
       </c>
-      <c r="AC22">
+      <c r="AI22">
+        <v>-16.7624851</v>
+      </c>
+      <c r="AJ22">
+        <v>20</v>
+      </c>
+      <c r="AK22">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL22">
         <v>5875943.767037787</v>
       </c>
-      <c r="AD22">
+      <c r="AM22">
         <v>47712.66338834682</v>
       </c>
-      <c r="AF22">
+      <c r="AO22">
         <v>0.273508663</v>
       </c>
-      <c r="AG22">
+      <c r="AP22">
+        <v>675.6394889512241</v>
+      </c>
+      <c r="AQ22">
+        <v>1.75</v>
+      </c>
+      <c r="AR22">
+        <v>27246973.25735049</v>
+      </c>
+      <c r="AS22">
+        <v>56946174.10786252</v>
+      </c>
+      <c r="AT22">
+        <v>18982058.03595417</v>
+      </c>
+      <c r="AU22">
+        <v>3.8</v>
+      </c>
+      <c r="AV22">
         <v>20924554.97281941</v>
       </c>
-      <c r="AH22">
-        <v>27246973.25735049</v>
-      </c>
-      <c r="AI22">
-        <v>56946174.10786252</v>
-      </c>
-      <c r="AJ22">
-        <v>18982058.03595417</v>
-      </c>
-      <c r="AK22">
+      <c r="AW22">
         <v>39906613.00877358</v>
       </c>
-      <c r="AM22">
+      <c r="AY22">
         <v>0.273508663</v>
       </c>
-      <c r="AN22">
+      <c r="AZ22">
+        <v>506625</v>
+      </c>
+      <c r="BA22">
+        <v>86196.64461741605</v>
+      </c>
+      <c r="BB22">
+        <v>44784.65841703142</v>
+      </c>
+      <c r="BC22">
+        <v>93599.93609159566</v>
+      </c>
+      <c r="BD22">
+        <v>31199.97869719855</v>
+      </c>
+      <c r="BE22">
+        <v>0.035</v>
+      </c>
+      <c r="BF22">
         <v>32972.49949995699</v>
       </c>
-      <c r="AO22">
-        <v>44784.65841703142</v>
-      </c>
-      <c r="AP22">
-        <v>93599.93609159566</v>
-      </c>
-      <c r="AQ22">
-        <v>31199.97869719855</v>
-      </c>
-      <c r="AR22">
+      <c r="BG22">
         <v>64172.47819715554</v>
       </c>
-      <c r="AT22">
+      <c r="BI22">
         <v>0.273508663</v>
       </c>
-      <c r="AU22">
+      <c r="BJ22">
         <v>0.1129995580991456</v>
       </c>
-      <c r="AV22">
+      <c r="BK22">
         <v>12306003.69815169</v>
       </c>
-      <c r="AW22">
+      <c r="BL22">
         <v>582366.1905022529</v>
       </c>
-      <c r="AX22">
+      <c r="BM22">
         <v>39906613.00877358</v>
       </c>
-      <c r="AY22">
+      <c r="BN22">
         <v>64172.47819715554</v>
       </c>
-      <c r="AZ22">
+      <c r="BO22">
         <v>47712.66338834682</v>
       </c>
-      <c r="BA22">
+      <c r="BP22">
         <v>-104582424.953073</v>
       </c>
-      <c r="BB22">
+      <c r="BQ22">
         <v>-157489292.9920861</v>
       </c>
     </row>
-    <row r="23" spans="2:54">
+    <row r="23" spans="2:69">
       <c r="B23">
         <v>0.284247764</v>
       </c>
@@ -3678,112 +4707,157 @@
         <v>98.1205186907</v>
       </c>
       <c r="O23">
+        <v>2.3625</v>
+      </c>
+      <c r="P23">
         <v>1335445.679879</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>2799094.145026383</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>933031.3816754611</v>
       </c>
-      <c r="R23">
+      <c r="S23">
+        <v>210.0635478607142</v>
+      </c>
+      <c r="T23">
         <v>166485.864857009</v>
       </c>
-      <c r="S23">
+      <c r="U23">
         <v>14133956.23525649</v>
       </c>
-      <c r="T23">
+      <c r="V23">
         <v>15066987.61693196</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>0.284247764</v>
       </c>
-      <c r="W23">
+      <c r="Y23">
+        <v>113.565</v>
+      </c>
+      <c r="Z23">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA23">
+        <v>4232.990340139349</v>
+      </c>
+      <c r="AB23">
+        <v>3.7935</v>
+      </c>
+      <c r="AC23">
         <v>901982.6043611816</v>
       </c>
-      <c r="X23">
+      <c r="AD23">
         <v>1885143.643114869</v>
       </c>
-      <c r="Y23">
+      <c r="AE23">
         <v>628381.2143716231</v>
       </c>
-      <c r="Z23">
+      <c r="AF23">
         <v>628381.2143716231</v>
       </c>
-      <c r="AB23">
+      <c r="AH23">
         <v>0.284247764</v>
       </c>
-      <c r="AC23">
+      <c r="AI23">
+        <v>-18.8429647</v>
+      </c>
+      <c r="AJ23">
+        <v>20</v>
+      </c>
+      <c r="AK23">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL23">
         <v>6605237.846354776</v>
       </c>
-      <c r="AD23">
+      <c r="AM23">
         <v>53634.53131240077</v>
       </c>
-      <c r="AF23">
+      <c r="AO23">
         <v>0.284247764</v>
       </c>
-      <c r="AG23">
+      <c r="AP23">
+        <v>756.0482640560416</v>
+      </c>
+      <c r="AQ23">
+        <v>1.75</v>
+      </c>
+      <c r="AR23">
+        <v>29979721.00433239</v>
+      </c>
+      <c r="AS23">
+        <v>62657616.89905469</v>
+      </c>
+      <c r="AT23">
+        <v>20885872.2996849</v>
+      </c>
+      <c r="AU23">
+        <v>3.8</v>
+      </c>
+      <c r="AV23">
         <v>23414814.73781561</v>
       </c>
-      <c r="AH23">
-        <v>29979721.00433239</v>
-      </c>
-      <c r="AI23">
-        <v>62657616.89905469</v>
-      </c>
-      <c r="AJ23">
-        <v>20885872.2996849</v>
-      </c>
-      <c r="AK23">
+      <c r="AW23">
         <v>44300687.0375005</v>
       </c>
-      <c r="AM23">
+      <c r="AY23">
         <v>0.284247764</v>
       </c>
-      <c r="AN23">
+      <c r="AZ23">
+        <v>506625</v>
+      </c>
+      <c r="BA23">
+        <v>96480.26482139516</v>
+      </c>
+      <c r="BB23">
+        <v>48015.8394452123</v>
+      </c>
+      <c r="BC23">
+        <v>100353.1044404937</v>
+      </c>
+      <c r="BD23">
+        <v>33451.0348134979</v>
+      </c>
+      <c r="BE23">
+        <v>0.035</v>
+      </c>
+      <c r="BF23">
         <v>36906.25659152873</v>
       </c>
-      <c r="AO23">
-        <v>48015.8394452123</v>
-      </c>
-      <c r="AP23">
-        <v>100353.1044404937</v>
-      </c>
-      <c r="AQ23">
-        <v>33451.0348134979</v>
-      </c>
-      <c r="AR23">
+      <c r="BG23">
         <v>70357.29140502663</v>
       </c>
-      <c r="AT23">
+      <c r="BI23">
         <v>0.284247764</v>
       </c>
-      <c r="AU23">
+      <c r="BJ23">
         <v>0.09719252784786218</v>
       </c>
-      <c r="AV23">
+      <c r="BK23">
         <v>15066987.61693196</v>
       </c>
-      <c r="AW23">
+      <c r="BL23">
         <v>628381.2143716231</v>
       </c>
-      <c r="AX23">
+      <c r="BM23">
         <v>44300687.0375005</v>
       </c>
-      <c r="AY23">
+      <c r="BN23">
         <v>70357.29140502663</v>
       </c>
-      <c r="AZ23">
+      <c r="BO23">
         <v>53634.53131240077</v>
       </c>
-      <c r="BA23">
+      <c r="BP23">
         <v>-131430763.5326494</v>
       </c>
-      <c r="BB23">
+      <c r="BQ23">
         <v>-191550811.224171</v>
       </c>
     </row>
-    <row r="24" spans="2:54">
+    <row r="24" spans="2:69">
       <c r="B24">
         <v>0.295400521</v>
       </c>
@@ -3821,112 +4895,157 @@
         <v>105.1455875472</v>
       </c>
       <c r="O24">
+        <v>2.3625</v>
+      </c>
+      <c r="P24">
         <v>1519583.399593523</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>3185046.805548025</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>1061682.268516008</v>
       </c>
-      <c r="R24">
+      <c r="S24">
+        <v>258.4903572054338</v>
+      </c>
+      <c r="T24">
         <v>204866.5326031666</v>
       </c>
-      <c r="S24">
+      <c r="U24">
         <v>17392315.00745633</v>
       </c>
-      <c r="T24">
+      <c r="V24">
         <v>18453997.27597234</v>
       </c>
-      <c r="V24">
+      <c r="X24">
         <v>0.295400521</v>
       </c>
-      <c r="W24">
+      <c r="Y24">
+        <v>113.565</v>
+      </c>
+      <c r="Z24">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA24">
+        <v>4753.231780648619</v>
+      </c>
+      <c r="AB24">
+        <v>3.7935</v>
+      </c>
+      <c r="AC24">
         <v>972568.6726908979</v>
       </c>
-      <c r="X24">
+      <c r="AD24">
         <v>2032668.525923977</v>
       </c>
-      <c r="Y24">
+      <c r="AE24">
         <v>677556.1753079921</v>
       </c>
-      <c r="Z24">
+      <c r="AF24">
         <v>677556.1753079921</v>
       </c>
-      <c r="AB24">
+      <c r="AH24">
         <v>0.295400521</v>
       </c>
-      <c r="AC24">
+      <c r="AI24">
+        <v>-21.1587959</v>
+      </c>
+      <c r="AJ24">
+        <v>20</v>
+      </c>
+      <c r="AK24">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL24">
         <v>7417032.387794915</v>
       </c>
-      <c r="AD24">
+      <c r="AM24">
         <v>60226.30298889471</v>
       </c>
-      <c r="AF24">
+      <c r="AO24">
         <v>0.295400521</v>
       </c>
-      <c r="AG24">
+      <c r="AP24">
+        <v>847.5458374053887</v>
+      </c>
+      <c r="AQ24">
+        <v>1.75</v>
+      </c>
+      <c r="AR24">
+        <v>33036894.03901543</v>
+      </c>
+      <c r="AS24">
+        <v>69047108.54154223</v>
+      </c>
+      <c r="AT24">
+        <v>23015702.84718074</v>
+      </c>
+      <c r="AU24">
+        <v>3.8</v>
+      </c>
+      <c r="AV24">
         <v>26248494.58444489</v>
       </c>
-      <c r="AH24">
-        <v>33036894.03901543</v>
-      </c>
-      <c r="AI24">
-        <v>69047108.54154223</v>
-      </c>
-      <c r="AJ24">
-        <v>23015702.84718074</v>
-      </c>
-      <c r="AK24">
+      <c r="AW24">
         <v>49264197.43162563</v>
       </c>
-      <c r="AM24">
+      <c r="AY24">
         <v>0.295400521</v>
       </c>
-      <c r="AN24">
+      <c r="AZ24">
+        <v>506625</v>
+      </c>
+      <c r="BA24">
+        <v>108177.8242676542</v>
+      </c>
+      <c r="BB24">
+        <v>51528.01644450356</v>
+      </c>
+      <c r="BC24">
+        <v>107693.5543690124</v>
+      </c>
+      <c r="BD24">
+        <v>35897.85145633748</v>
+      </c>
+      <c r="BE24">
+        <v>0.035</v>
+      </c>
+      <c r="BF24">
         <v>41380.88289171029</v>
       </c>
-      <c r="AO24">
-        <v>51528.01644450356</v>
-      </c>
-      <c r="AP24">
-        <v>107693.5543690124</v>
-      </c>
-      <c r="AQ24">
-        <v>35897.85145633748</v>
-      </c>
-      <c r="AR24">
+      <c r="BG24">
         <v>77278.73434804777</v>
       </c>
-      <c r="AT24">
+      <c r="BI24">
         <v>0.295400521</v>
       </c>
-      <c r="AU24">
+      <c r="BJ24">
         <v>0.08345290260511748</v>
       </c>
-      <c r="AV24">
+      <c r="BK24">
         <v>18453997.27597234</v>
       </c>
-      <c r="AW24">
+      <c r="BL24">
         <v>677556.1753079921</v>
       </c>
-      <c r="AX24">
+      <c r="BM24">
         <v>49264197.43162563</v>
       </c>
-      <c r="AY24">
+      <c r="BN24">
         <v>77278.73434804777</v>
       </c>
-      <c r="AZ24">
+      <c r="BO24">
         <v>60226.30298889471</v>
       </c>
-      <c r="BA24">
+      <c r="BP24">
         <v>-161846177.1684278</v>
       </c>
-      <c r="BB24">
+      <c r="BQ24">
         <v>-230379433.0886707</v>
       </c>
     </row>
-    <row r="25" spans="2:54">
+    <row r="25" spans="2:69">
       <c r="B25">
         <v>0.306946879</v>
       </c>
@@ -3964,112 +5083,157 @@
         <v>112.6736258293</v>
       </c>
       <c r="O25">
+        <v>2.3625</v>
+      </c>
+      <c r="P25">
         <v>1729110.928453411</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>3624216.50603835</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>1208072.16867945</v>
       </c>
-      <c r="R25">
+      <c r="S25">
+        <v>318.0811995472893</v>
+      </c>
+      <c r="T25">
         <v>252095.2547012042</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>21401836.72723765</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>22609908.8959171</v>
       </c>
-      <c r="V25">
+      <c r="X25">
         <v>0.306946879</v>
       </c>
-      <c r="W25">
+      <c r="Y25">
+        <v>113.565</v>
+      </c>
+      <c r="Z25">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA25">
+        <v>5329.962507816493</v>
+      </c>
+      <c r="AB25">
+        <v>3.7935</v>
+      </c>
+      <c r="AC25">
         <v>1047726.989931829</v>
       </c>
-      <c r="X25">
+      <c r="AD25">
         <v>2189749.408957523</v>
       </c>
-      <c r="Y25">
+      <c r="AE25">
         <v>729916.4696525076</v>
       </c>
-      <c r="Z25">
+      <c r="AF25">
         <v>729916.4696525076</v>
       </c>
-      <c r="AB25">
+      <c r="AH25">
         <v>0.306946879</v>
       </c>
-      <c r="AC25">
+      <c r="AI25">
+        <v>-23.7260866</v>
+      </c>
+      <c r="AJ25">
+        <v>20</v>
+      </c>
+      <c r="AK25">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL25">
         <v>8316973.875995792</v>
       </c>
-      <c r="AD25">
+      <c r="AM25">
         <v>67533.82787308583</v>
       </c>
-      <c r="AF25">
+      <c r="AO25">
         <v>0.306946879</v>
       </c>
-      <c r="AG25">
+      <c r="AP25">
+        <v>951.7178380250689</v>
+      </c>
+      <c r="AQ25">
+        <v>1.75</v>
+      </c>
+      <c r="AR25">
+        <v>36457969.09069468</v>
+      </c>
+      <c r="AS25">
+        <v>76197155.39955188</v>
+      </c>
+      <c r="AT25">
+        <v>25399051.79985063</v>
+      </c>
+      <c r="AU25">
+        <v>3.8</v>
+      </c>
+      <c r="AV25">
         <v>29474701.44363638</v>
       </c>
-      <c r="AH25">
-        <v>36457969.09069468</v>
-      </c>
-      <c r="AI25">
-        <v>76197155.39955188</v>
-      </c>
-      <c r="AJ25">
-        <v>25399051.79985063</v>
-      </c>
-      <c r="AK25">
+      <c r="AW25">
         <v>54873753.24348701</v>
       </c>
-      <c r="AM25">
+      <c r="AY25">
         <v>0.306946879</v>
       </c>
-      <c r="AN25">
+      <c r="AZ25">
+        <v>506625</v>
+      </c>
+      <c r="BA25">
+        <v>121490.7165874054</v>
+      </c>
+      <c r="BB25">
+        <v>55345.07039859163</v>
+      </c>
+      <c r="BC25">
+        <v>115671.1971330565</v>
+      </c>
+      <c r="BD25">
+        <v>38557.06571101883</v>
+      </c>
+      <c r="BE25">
+        <v>0.035</v>
+      </c>
+      <c r="BF25">
         <v>46473.41679838729</v>
       </c>
-      <c r="AO25">
-        <v>55345.07039859163</v>
-      </c>
-      <c r="AP25">
-        <v>115671.1971330565</v>
-      </c>
-      <c r="AQ25">
-        <v>38557.06571101883</v>
-      </c>
-      <c r="AR25">
+      <c r="BG25">
         <v>85030.48250940611</v>
       </c>
-      <c r="AT25">
+      <c r="BI25">
         <v>0.306946879</v>
       </c>
-      <c r="AU25">
+      <c r="BJ25">
         <v>0.07154775326260926</v>
       </c>
-      <c r="AV25">
+      <c r="BK25">
         <v>22609908.8959171</v>
       </c>
-      <c r="AW25">
+      <c r="BL25">
         <v>729916.4696525076</v>
       </c>
-      <c r="AX25">
+      <c r="BM25">
         <v>54873753.24348701</v>
       </c>
-      <c r="AY25">
+      <c r="BN25">
         <v>85030.48250940611</v>
       </c>
-      <c r="AZ25">
+      <c r="BO25">
         <v>67533.82787308583</v>
       </c>
-      <c r="BA25">
+      <c r="BP25">
         <v>-196247882.2799551</v>
       </c>
-      <c r="BB25">
+      <c r="BQ25">
         <v>-274614025.1993942</v>
       </c>
     </row>
-    <row r="26" spans="2:54">
+    <row r="26" spans="2:69">
       <c r="B26">
         <v>0.318836326</v>
       </c>
@@ -4107,112 +5271,157 @@
         <v>120.7406438244</v>
       </c>
       <c r="O26">
+        <v>2.3625</v>
+      </c>
+      <c r="P26">
         <v>1967529.122861162</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>4123941.041516996</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>1374647.013838999</v>
       </c>
-      <c r="R26">
+      <c r="S26">
+        <v>391.4097611941838</v>
+      </c>
+      <c r="T26">
         <v>310211.8062344505</v>
       </c>
-      <c r="S26">
+      <c r="U26">
         <v>26335689.8001122</v>
       </c>
-      <c r="T26">
+      <c r="V26">
         <v>27710336.8139512</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>0.318836326</v>
       </c>
-      <c r="W26">
+      <c r="Y26">
+        <v>113.565</v>
+      </c>
+      <c r="Z26">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA26">
+        <v>5970.426131260394</v>
+      </c>
+      <c r="AB26">
+        <v>3.7935</v>
+      </c>
+      <c r="AC26">
         <v>1127926.747657432</v>
       </c>
-      <c r="X26">
+      <c r="AD26">
         <v>2357366.902604032</v>
       </c>
-      <c r="Y26">
+      <c r="AE26">
         <v>785788.9675346774</v>
       </c>
-      <c r="Z26">
+      <c r="AF26">
         <v>785788.9675346774</v>
       </c>
-      <c r="AB26">
+      <c r="AH26">
         <v>0.318836326</v>
       </c>
-      <c r="AC26">
+      <c r="AI26">
+        <v>-26.5770814</v>
+      </c>
+      <c r="AJ26">
+        <v>20</v>
+      </c>
+      <c r="AK26">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL26">
         <v>9316365.375822818</v>
       </c>
-      <c r="AD26">
+      <c r="AM26">
         <v>75648.88685168127</v>
       </c>
-      <c r="AF26">
+      <c r="AO26">
         <v>0.318836326</v>
       </c>
-      <c r="AG26">
+      <c r="AP26">
+        <v>1070.82431496455</v>
+      </c>
+      <c r="AQ26">
+        <v>1.75</v>
+      </c>
+      <c r="AR26">
+        <v>40301479.05049568</v>
+      </c>
+      <c r="AS26">
+        <v>84230091.21553597</v>
+      </c>
+      <c r="AT26">
+        <v>28076697.07184532</v>
+      </c>
+      <c r="AU26">
+        <v>3.8</v>
+      </c>
+      <c r="AV26">
         <v>33163429.0344521</v>
       </c>
-      <c r="AH26">
-        <v>40301479.05049568</v>
-      </c>
-      <c r="AI26">
-        <v>84230091.21553597</v>
-      </c>
-      <c r="AJ26">
-        <v>28076697.07184532</v>
-      </c>
-      <c r="AK26">
+      <c r="AW26">
         <v>61240126.10629742</v>
       </c>
-      <c r="AM26">
+      <c r="AY26">
         <v>0.318836326</v>
       </c>
-      <c r="AN26">
+      <c r="AZ26">
+        <v>506625</v>
+      </c>
+      <c r="BA26">
+        <v>136706.3502920026</v>
+      </c>
+      <c r="BB26">
+        <v>59508.11044811081</v>
+      </c>
+      <c r="BC26">
+        <v>124371.9508365516</v>
+      </c>
+      <c r="BD26">
+        <v>41457.3169455172</v>
+      </c>
+      <c r="BE26">
+        <v>0.035</v>
+      </c>
+      <c r="BF26">
         <v>52293.79967921917</v>
       </c>
-      <c r="AO26">
-        <v>59508.11044811081</v>
-      </c>
-      <c r="AP26">
-        <v>124371.9508365516</v>
-      </c>
-      <c r="AQ26">
-        <v>41457.3169455172</v>
-      </c>
-      <c r="AR26">
+      <c r="BG26">
         <v>93751.11662473637</v>
       </c>
-      <c r="AT26">
+      <c r="BI26">
         <v>0.318836326</v>
       </c>
-      <c r="AU26">
+      <c r="BJ26">
         <v>0.06124133520317711</v>
       </c>
-      <c r="AV26">
+      <c r="BK26">
         <v>27710336.8139512</v>
       </c>
-      <c r="AW26">
+      <c r="BL26">
         <v>785788.9675346774</v>
       </c>
-      <c r="AX26">
+      <c r="BM26">
         <v>61240126.10629742</v>
       </c>
-      <c r="AY26">
+      <c r="BN26">
         <v>93751.11662473637</v>
       </c>
-      <c r="AZ26">
+      <c r="BO26">
         <v>75648.88685168127</v>
       </c>
-      <c r="BA26">
+      <c r="BP26">
         <v>-235256950.5810857</v>
       </c>
-      <c r="BB26">
+      <c r="BQ26">
         <v>-325162602.4723454</v>
       </c>
     </row>
-    <row r="27" spans="2:54">
+    <row r="27" spans="2:69">
       <c r="B27">
         <v>0.331200741</v>
       </c>
@@ -4250,112 +5459,157 @@
         <v>129.3852306859</v>
       </c>
       <c r="O27">
+        <v>2.3625</v>
+      </c>
+      <c r="P27">
         <v>2238821.573048726</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>4692570.017110129</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>1564190.005703376</v>
       </c>
-      <c r="R27">
+      <c r="S27">
+        <v>481.6430563797106</v>
+      </c>
+      <c r="T27">
         <v>381726.2043337397</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>32406964.22208311</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>33971154.22778649</v>
       </c>
-      <c r="V27">
+      <c r="X27">
         <v>0.331200741</v>
       </c>
-      <c r="W27">
+      <c r="Y27">
+        <v>113.565</v>
+      </c>
+      <c r="Z27">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA27">
+        <v>6671.98915231127</v>
+      </c>
+      <c r="AB27">
+        <v>3.7935</v>
+      </c>
+      <c r="AC27">
         <v>1212392.935207248</v>
       </c>
-      <c r="X27">
+      <c r="AD27">
         <v>2533901.234583148</v>
       </c>
-      <c r="Y27">
+      <c r="AE27">
         <v>844633.7448610492</v>
       </c>
-      <c r="Z27">
+      <c r="AF27">
         <v>844633.7448610492</v>
       </c>
-      <c r="AB27">
+      <c r="AH27">
         <v>0.331200741</v>
       </c>
-      <c r="AC27">
+      <c r="AI27">
+        <v>-29.7000574</v>
+      </c>
+      <c r="AJ27">
+        <v>20</v>
+      </c>
+      <c r="AK27">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL27">
         <v>10411097.52635631</v>
       </c>
-      <c r="AD27">
+      <c r="AM27">
         <v>84538.11191401319</v>
       </c>
-      <c r="AF27">
+      <c r="AO27">
         <v>0.331200741</v>
       </c>
-      <c r="AG27">
+      <c r="AP27">
+        <v>1205.974528160858</v>
+      </c>
+      <c r="AQ27">
+        <v>1.75</v>
+      </c>
+      <c r="AR27">
+        <v>44585938.14681926</v>
+      </c>
+      <c r="AS27">
+        <v>93184610.72685224</v>
+      </c>
+      <c r="AT27">
+        <v>31061536.90895075</v>
+      </c>
+      <c r="AU27">
+        <v>3.8</v>
+      </c>
+      <c r="AV27">
         <v>37349031.13714179</v>
       </c>
-      <c r="AH27">
-        <v>44585938.14681926</v>
-      </c>
-      <c r="AI27">
-        <v>93184610.72685224</v>
-      </c>
-      <c r="AJ27">
-        <v>31061536.90895075</v>
-      </c>
-      <c r="AK27">
+      <c r="AW27">
         <v>68410568.04609254</v>
       </c>
-      <c r="AM27">
+      <c r="AY27">
         <v>0.331200741</v>
       </c>
-      <c r="AN27">
+      <c r="AZ27">
+        <v>506625</v>
+      </c>
+      <c r="BA27">
+        <v>153964.7093865013</v>
+      </c>
+      <c r="BB27">
+        <v>64011.52558783221</v>
+      </c>
+      <c r="BC27">
+        <v>133784.0884785693</v>
+      </c>
+      <c r="BD27">
+        <v>44594.6961595231</v>
+      </c>
+      <c r="BE27">
+        <v>0.035</v>
+      </c>
+      <c r="BF27">
         <v>58895.57912364155</v>
       </c>
-      <c r="AO27">
-        <v>64011.52558783221</v>
-      </c>
-      <c r="AP27">
-        <v>133784.0884785693</v>
-      </c>
-      <c r="AQ27">
-        <v>44594.6961595231</v>
-      </c>
-      <c r="AR27">
+      <c r="BG27">
         <v>103490.2752831647</v>
       </c>
-      <c r="AT27">
+      <c r="BI27">
         <v>0.331200741</v>
       </c>
-      <c r="AU27">
+      <c r="BJ27">
         <v>0.05237014516830115</v>
       </c>
-      <c r="AV27">
+      <c r="BK27">
         <v>33971154.22778649</v>
       </c>
-      <c r="AW27">
+      <c r="BL27">
         <v>844633.7448610492</v>
       </c>
-      <c r="AX27">
+      <c r="BM27">
         <v>68410568.04609254</v>
       </c>
-      <c r="AY27">
+      <c r="BN27">
         <v>103490.2752831647</v>
       </c>
-      <c r="AZ27">
+      <c r="BO27">
         <v>84538.11191401319</v>
       </c>
-      <c r="BA27">
+      <c r="BP27">
         <v>-279092794.1563765</v>
       </c>
-      <c r="BB27">
+      <c r="BQ27">
         <v>-382507178.5623137</v>
       </c>
     </row>
-    <row r="28" spans="2:54">
+    <row r="28" spans="2:69">
       <c r="B28">
         <v>0.343988431</v>
       </c>
@@ -4393,112 +5647,157 @@
         <v>138.6487381692</v>
       </c>
       <c r="O28">
+        <v>2.3625</v>
+      </c>
+      <c r="P28">
         <v>2547521.138786893</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>5339604.306897328</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1779868.102299109</v>
       </c>
-      <c r="R28">
+      <c r="S28">
+        <v>592.6782018231792</v>
+      </c>
+      <c r="T28">
         <v>469727.1088549608</v>
       </c>
-      <c r="S28">
+      <c r="U28">
         <v>39877874.34549927</v>
       </c>
-      <c r="T28">
+      <c r="V28">
         <v>41657742.44779838</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>0.343988431</v>
       </c>
-      <c r="W28">
+      <c r="Y28">
+        <v>113.565</v>
+      </c>
+      <c r="Z28">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA28">
+        <v>7443.010164416834</v>
+      </c>
+      <c r="AB28">
+        <v>3.7935</v>
+      </c>
+      <c r="AC28">
         <v>1301709.365057264</v>
       </c>
-      <c r="X28">
+      <c r="AD28">
         <v>2720572.572969683</v>
       </c>
-      <c r="Y28">
+      <c r="AE28">
         <v>906857.5243232275</v>
       </c>
-      <c r="Z28">
+      <c r="AF28">
         <v>906857.5243232275</v>
       </c>
-      <c r="AB28">
+      <c r="AH28">
         <v>0.343988431</v>
       </c>
-      <c r="AC28">
+      <c r="AI28">
+        <v>-33.1322225</v>
+      </c>
+      <c r="AJ28">
+        <v>20</v>
+      </c>
+      <c r="AK28">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL28">
         <v>11614213.23422886</v>
       </c>
-      <c r="AD28">
+      <c r="AM28">
         <v>94307.41146193833</v>
       </c>
-      <c r="AF28">
+      <c r="AO28">
         <v>0.343988431</v>
       </c>
-      <c r="AG28">
+      <c r="AP28">
+        <v>1360.110013232382</v>
+      </c>
+      <c r="AQ28">
+        <v>1.75</v>
+      </c>
+      <c r="AR28">
+        <v>49385383.0541902</v>
+      </c>
+      <c r="AS28">
+        <v>103215450.5832575</v>
+      </c>
+      <c r="AT28">
+        <v>34405150.19441917</v>
+      </c>
+      <c r="AU28">
+        <v>3.8</v>
+      </c>
+      <c r="AV28">
         <v>42122607.10980685</v>
       </c>
-      <c r="AH28">
-        <v>49385383.0541902</v>
-      </c>
-      <c r="AI28">
-        <v>103215450.5832575</v>
-      </c>
-      <c r="AJ28">
-        <v>34405150.19441917</v>
-      </c>
-      <c r="AK28">
+      <c r="AW28">
         <v>76527757.30422601</v>
       </c>
-      <c r="AM28">
+      <c r="AY28">
         <v>0.343988431</v>
       </c>
-      <c r="AN28">
+      <c r="AZ28">
+        <v>506625</v>
+      </c>
+      <c r="BA28">
+        <v>173639.6227431748</v>
+      </c>
+      <c r="BB28">
+        <v>68905.70051482742</v>
+      </c>
+      <c r="BC28">
+        <v>144012.9140759893</v>
+      </c>
+      <c r="BD28">
+        <v>48004.30469199643</v>
+      </c>
+      <c r="BE28">
+        <v>0.035</v>
+      </c>
+      <c r="BF28">
         <v>66421.75457622451</v>
       </c>
-      <c r="AO28">
-        <v>68905.70051482742</v>
-      </c>
-      <c r="AP28">
-        <v>144012.9140759893</v>
-      </c>
-      <c r="AQ28">
-        <v>48004.30469199643</v>
-      </c>
-      <c r="AR28">
+      <c r="BG28">
         <v>114426.0592682209</v>
       </c>
-      <c r="AT28">
+      <c r="BI28">
         <v>0.343988431</v>
       </c>
-      <c r="AU28">
+      <c r="BJ28">
         <v>0.044728960583782</v>
       </c>
-      <c r="AV28">
+      <c r="BK28">
         <v>41657742.44779838</v>
       </c>
-      <c r="AW28">
+      <c r="BL28">
         <v>906857.5243232275</v>
       </c>
-      <c r="AX28">
+      <c r="BM28">
         <v>76527757.30422601</v>
       </c>
-      <c r="AY28">
+      <c r="BN28">
         <v>114426.0592682209</v>
       </c>
-      <c r="AZ28">
+      <c r="BO28">
         <v>94307.41146193833</v>
       </c>
-      <c r="BA28">
+      <c r="BP28">
         <v>-328566777.580647</v>
       </c>
-      <c r="BB28">
+      <c r="BQ28">
         <v>-447867868.3277248</v>
       </c>
     </row>
-    <row r="29" spans="2:54">
+    <row r="29" spans="2:69">
       <c r="B29">
         <v>0.357357927</v>
       </c>
@@ -4536,112 +5835,157 @@
         <v>148.5754791322</v>
       </c>
       <c r="O29">
+        <v>2.3625</v>
+      </c>
+      <c r="P29">
         <v>2898785.709242532</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>6075854.846572347</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>2025284.948857449</v>
       </c>
-      <c r="R29">
+      <c r="S29">
+        <v>729.3107391011749</v>
+      </c>
+      <c r="T29">
         <v>578015.2262746363</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>49071084.31394049</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>51096369.26279794</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>0.357357927</v>
       </c>
-      <c r="W29">
+      <c r="Y29">
+        <v>113.565</v>
+      </c>
+      <c r="Z29">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA29">
+        <v>8271.230051443797</v>
+      </c>
+      <c r="AB29">
+        <v>3.7935</v>
+      </c>
+      <c r="AC29">
         <v>1394113.063151148</v>
       </c>
-      <c r="X29">
+      <c r="AD29">
         <v>2913696.301985899</v>
       </c>
-      <c r="Y29">
+      <c r="AE29">
         <v>971232.1006619661</v>
       </c>
-      <c r="Z29">
+      <c r="AF29">
         <v>971232.1006619661</v>
       </c>
-      <c r="AB29">
+      <c r="AH29">
         <v>0.357357927</v>
       </c>
-      <c r="AC29">
+      <c r="AI29">
+        <v>-36.8190058</v>
+      </c>
+      <c r="AJ29">
+        <v>20</v>
+      </c>
+      <c r="AK29">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL29">
         <v>12906583.14375105</v>
       </c>
-      <c r="AD29">
+      <c r="AM29">
         <v>104801.4551272585</v>
       </c>
-      <c r="AF29">
+      <c r="AO29">
         <v>0.357357927</v>
       </c>
-      <c r="AG29">
+      <c r="AP29">
+        <v>1534.097781711113</v>
+      </c>
+      <c r="AQ29">
+        <v>1.75</v>
+      </c>
+      <c r="AR29">
+        <v>54706077.96788903</v>
+      </c>
+      <c r="AS29">
+        <v>114335702.9528881</v>
+      </c>
+      <c r="AT29">
+        <v>38111900.98429602</v>
+      </c>
+      <c r="AU29">
+        <v>3.8</v>
+      </c>
+      <c r="AV29">
         <v>47511008.29959317</v>
       </c>
-      <c r="AH29">
-        <v>54706077.96788903</v>
-      </c>
-      <c r="AI29">
-        <v>114335702.9528881</v>
-      </c>
-      <c r="AJ29">
-        <v>38111900.98429602</v>
-      </c>
-      <c r="AK29">
+      <c r="AW29">
         <v>85622909.28388919</v>
       </c>
-      <c r="AM29">
+      <c r="AY29">
         <v>0.357357927</v>
       </c>
-      <c r="AN29">
+      <c r="AZ29">
+        <v>506625</v>
+      </c>
+      <c r="BA29">
+        <v>195839.2460785588</v>
+      </c>
+      <c r="BB29">
+        <v>74168.49495920842</v>
+      </c>
+      <c r="BC29">
+        <v>155012.1544647456</v>
+      </c>
+      <c r="BD29">
+        <v>51670.71815491519</v>
+      </c>
+      <c r="BE29">
+        <v>0.035</v>
+      </c>
+      <c r="BF29">
         <v>74913.6984630668</v>
       </c>
-      <c r="AO29">
-        <v>74168.49495920842</v>
-      </c>
-      <c r="AP29">
-        <v>155012.1544647456</v>
-      </c>
-      <c r="AQ29">
-        <v>51670.71815491519</v>
-      </c>
-      <c r="AR29">
+      <c r="BG29">
         <v>126584.416617982</v>
       </c>
-      <c r="AT29">
+      <c r="BI29">
         <v>0.357357927</v>
       </c>
-      <c r="AU29">
+      <c r="BJ29">
         <v>0.03819053718832464</v>
       </c>
-      <c r="AV29">
+      <c r="BK29">
         <v>51096369.26279794</v>
       </c>
-      <c r="AW29">
+      <c r="BL29">
         <v>971232.1006619661</v>
       </c>
-      <c r="AX29">
+      <c r="BM29">
         <v>85622909.28388919</v>
       </c>
-      <c r="AY29">
+      <c r="BN29">
         <v>126584.416617982</v>
       </c>
-      <c r="AZ29">
+      <c r="BO29">
         <v>104801.4551272585</v>
       </c>
-      <c r="BA29">
+      <c r="BP29">
         <v>-383598949.797983</v>
       </c>
-      <c r="BB29">
+      <c r="BQ29">
         <v>-521520846.3170773</v>
       </c>
     </row>
-    <row r="30" spans="2:54">
+    <row r="30" spans="2:69">
       <c r="B30">
         <v>0.371318761</v>
       </c>
@@ -4679,112 +6023,157 @@
         <v>159.2129381755</v>
       </c>
       <c r="O30">
+        <v>2.3625</v>
+      </c>
+      <c r="P30">
         <v>3298484.33646092</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>6913623.169222088</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>2304541.056407362</v>
       </c>
-      <c r="R30">
+      <c r="S30">
+        <v>897.4417331454298</v>
+      </c>
+      <c r="T30">
         <v>711267.4456044105</v>
       </c>
-      <c r="S30">
+      <c r="U30">
         <v>60383642.51745776</v>
       </c>
-      <c r="T30">
+      <c r="V30">
         <v>62688183.57386512</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>0.371318761</v>
       </c>
-      <c r="W30">
+      <c r="Y30">
+        <v>113.565</v>
+      </c>
+      <c r="Z30">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA30">
+        <v>9157.338318332484</v>
+      </c>
+      <c r="AB30">
+        <v>3.7935</v>
+      </c>
+      <c r="AC30">
         <v>1489455.217852408</v>
       </c>
-      <c r="X30">
+      <c r="AD30">
         <v>3112961.405311533</v>
       </c>
-      <c r="Y30">
+      <c r="AE30">
         <v>1037653.801770511</v>
       </c>
-      <c r="Z30">
+      <c r="AF30">
         <v>1037653.801770511</v>
       </c>
-      <c r="AB30">
+      <c r="AH30">
         <v>0.371318761</v>
       </c>
-      <c r="AC30">
+      <c r="AI30">
+        <v>-40.7634766</v>
+      </c>
+      <c r="AJ30">
+        <v>20</v>
+      </c>
+      <c r="AK30">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL30">
         <v>14289283.17141715</v>
       </c>
-      <c r="AD30">
+      <c r="AM30">
         <v>116028.9793519072</v>
       </c>
-      <c r="AF30">
+      <c r="AO30">
         <v>0.371318761</v>
       </c>
-      <c r="AG30">
+      <c r="AP30">
+        <v>1730.815606525359</v>
+      </c>
+      <c r="AQ30">
+        <v>1.75</v>
+      </c>
+      <c r="AR30">
+        <v>60614102.15759543</v>
+      </c>
+      <c r="AS30">
+        <v>126683473.5093744</v>
+      </c>
+      <c r="AT30">
+        <v>42227824.5031248</v>
+      </c>
+      <c r="AU30">
+        <v>3.8</v>
+      </c>
+      <c r="AV30">
         <v>53603359.33409037</v>
       </c>
-      <c r="AH30">
-        <v>60614102.15759543</v>
-      </c>
-      <c r="AI30">
-        <v>126683473.5093744</v>
-      </c>
-      <c r="AJ30">
-        <v>42227824.5031248</v>
-      </c>
-      <c r="AK30">
+      <c r="AW30">
         <v>95831183.83721517</v>
       </c>
-      <c r="AM30">
+      <c r="AY30">
         <v>0.371318761</v>
       </c>
-      <c r="AN30">
+      <c r="AZ30">
+        <v>506625</v>
+      </c>
+      <c r="BA30">
+        <v>220927.7186876949</v>
+      </c>
+      <c r="BB30">
+        <v>79836.42015268568</v>
+      </c>
+      <c r="BC30">
+        <v>166858.1181191131</v>
+      </c>
+      <c r="BD30">
+        <v>55619.37270637102</v>
+      </c>
+      <c r="BE30">
+        <v>0.035</v>
+      </c>
+      <c r="BF30">
         <v>84510.70370881719</v>
       </c>
-      <c r="AO30">
-        <v>79836.42015268568</v>
-      </c>
-      <c r="AP30">
-        <v>166858.1181191131</v>
-      </c>
-      <c r="AQ30">
-        <v>55619.37270637102</v>
-      </c>
-      <c r="AR30">
+      <c r="BG30">
         <v>140130.0764151882</v>
       </c>
-      <c r="AT30">
+      <c r="BI30">
         <v>0.371318761</v>
       </c>
-      <c r="AU30">
+      <c r="BJ30">
         <v>0.03259355016537345</v>
       </c>
-      <c r="AV30">
+      <c r="BK30">
         <v>62688183.57386512</v>
       </c>
-      <c r="AW30">
+      <c r="BL30">
         <v>1037653.801770511</v>
       </c>
-      <c r="AX30">
+      <c r="BM30">
         <v>95831183.83721517</v>
       </c>
-      <c r="AY30">
+      <c r="BN30">
         <v>140130.0764151882</v>
       </c>
-      <c r="AZ30">
+      <c r="BO30">
         <v>116028.9793519072</v>
       </c>
-      <c r="BA30">
+      <c r="BP30">
         <v>-444830848.8814132</v>
       </c>
-      <c r="BB30">
+      <c r="BQ30">
         <v>-604644029.150031</v>
       </c>
     </row>
-    <row r="31" spans="2:54">
+    <row r="31" spans="2:69">
       <c r="B31">
         <v>0.407030238</v>
       </c>
@@ -4822,108 +6211,153 @@
         <v>170.612</v>
       </c>
       <c r="O31">
+        <v>2.3625</v>
+      </c>
+      <c r="P31">
         <v>3753295.338011671</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>7866907.028472464</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>2622302.342824155</v>
       </c>
-      <c r="R31">
+      <c r="S31">
+        <v>1104.332649589884</v>
+      </c>
+      <c r="T31">
         <v>875238.8414324628</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>74304130.80911012</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>76926433.15193428</v>
       </c>
-      <c r="V31">
+      <c r="X31">
         <v>0.407030238</v>
       </c>
-      <c r="W31">
+      <c r="Y31">
+        <v>113.565</v>
+      </c>
+      <c r="Z31">
+        <v>421.9209992270042</v>
+      </c>
+      <c r="AA31">
+        <v>8616.020464258363</v>
+      </c>
+      <c r="AB31">
+        <v>3.7935</v>
+      </c>
+      <c r="AC31">
         <v>1431616.847780156</v>
       </c>
-      <c r="X31">
+      <c r="AD31">
         <v>2992079.211860527</v>
       </c>
-      <c r="Y31">
+      <c r="AE31">
         <v>997359.7372868422</v>
       </c>
-      <c r="Z31">
+      <c r="AF31">
         <v>997359.7372868422</v>
       </c>
-      <c r="AB31">
+      <c r="AH31">
         <v>0.407030238</v>
       </c>
-      <c r="AC31">
+      <c r="AI31">
+        <v>-38.3538247</v>
+      </c>
+      <c r="AJ31">
+        <v>20</v>
+      </c>
+      <c r="AK31">
+        <v>8.119999999999999</v>
+      </c>
+      <c r="AL31">
         <v>13444600.59731984</v>
       </c>
-      <c r="AD31">
+      <c r="AM31">
         <v>109170.1568502371</v>
       </c>
-      <c r="AF31">
+      <c r="AO31">
         <v>0.407030238</v>
       </c>
-      <c r="AG31">
+      <c r="AP31">
+        <v>1734.206336936819</v>
+      </c>
+      <c r="AQ31">
+        <v>1.75</v>
+      </c>
+      <c r="AR31">
+        <v>60715020.7755915</v>
+      </c>
+      <c r="AS31">
+        <v>126894393.4209862</v>
+      </c>
+      <c r="AT31">
+        <v>42298131.14032874</v>
+      </c>
+      <c r="AU31">
+        <v>3.8</v>
+      </c>
+      <c r="AV31">
         <v>53708370.25493329</v>
       </c>
-      <c r="AH31">
-        <v>60715020.7755915</v>
-      </c>
-      <c r="AI31">
-        <v>126894393.4209862</v>
-      </c>
-      <c r="AJ31">
-        <v>42298131.14032874</v>
-      </c>
-      <c r="AK31">
+      <c r="AW31">
         <v>96006501.39526203</v>
       </c>
-      <c r="AM31">
+      <c r="AY31">
         <v>0.407030238</v>
       </c>
-      <c r="AN31">
+      <c r="AZ31">
+        <v>506625</v>
+      </c>
+      <c r="BA31">
+        <v>221267.8400461345</v>
+      </c>
+      <c r="BB31">
+        <v>79911.43518508623</v>
+      </c>
+      <c r="BC31">
+        <v>167014.8995368302</v>
+      </c>
+      <c r="BD31">
+        <v>55671.6331789434</v>
+      </c>
+      <c r="BE31">
+        <v>0.035</v>
+      </c>
+      <c r="BF31">
         <v>84640.80913659629</v>
       </c>
-      <c r="AO31">
-        <v>79911.43518508623</v>
-      </c>
-      <c r="AP31">
-        <v>167014.8995368302</v>
-      </c>
-      <c r="AQ31">
-        <v>55671.6331789434</v>
-      </c>
-      <c r="AR31">
+      <c r="BG31">
         <v>140312.4423155397</v>
       </c>
-      <c r="AT31">
+      <c r="BI31">
         <v>0.407030238</v>
       </c>
-      <c r="AU31">
+      <c r="BJ31">
         <v>0.02245468043373633</v>
       </c>
-      <c r="AV31">
+      <c r="BK31">
         <v>76926433.15193428</v>
       </c>
-      <c r="AW31">
+      <c r="BL31">
         <v>997359.7372868422</v>
       </c>
-      <c r="AX31">
+      <c r="BM31">
         <v>96006501.39526203</v>
       </c>
-      <c r="AY31">
+      <c r="BN31">
         <v>140312.4423155397</v>
       </c>
-      <c r="AZ31">
+      <c r="BO31">
         <v>109170.1568502371</v>
       </c>
-      <c r="BA31">
+      <c r="BP31">
         <v>-464228405.5789576</v>
       </c>
-      <c r="BB31">
+      <c r="BQ31">
         <v>-638408182.4626064</v>
       </c>
     </row>
